--- a/Code/Results/Cases/Case_4_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_2/res_line/pl_mw.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.524315280527844</v>
+        <v>2.524315280527958</v>
       </c>
       <c r="C2">
-        <v>0.6159628372446093</v>
+        <v>0.615962837244723</v>
       </c>
       <c r="D2">
-        <v>0.372129722523681</v>
+        <v>0.3721297225235389</v>
       </c>
       <c r="E2">
-        <v>0.5815486323781158</v>
+        <v>0.5815486323781585</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8.960797951860911</v>
+        <v>8.960797951860769</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2101779707941844</v>
+        <v>0.2101779707941631</v>
       </c>
       <c r="J2">
-        <v>0.7036434906418947</v>
+        <v>0.7036434906418592</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.145664518465367</v>
+        <v>2.145664518465196</v>
       </c>
       <c r="C3">
-        <v>0.5188206395328621</v>
+        <v>0.5188206395320094</v>
       </c>
       <c r="D3">
-        <v>0.3191611116246378</v>
+        <v>0.319161111625121</v>
       </c>
       <c r="E3">
-        <v>0.4953457873112157</v>
+        <v>0.4953457873109812</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.796092214049224</v>
+        <v>7.796092214049253</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1786062743684482</v>
+        <v>0.1786062743684091</v>
       </c>
       <c r="J3">
-        <v>0.5963780993620276</v>
+        <v>0.5963780993620489</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.922481222144825</v>
+        <v>1.922481222145024</v>
       </c>
       <c r="C4">
-        <v>0.4618726548363554</v>
+        <v>0.4618726548368386</v>
       </c>
       <c r="D4">
-        <v>0.2877922286236725</v>
+        <v>0.2877922286229619</v>
       </c>
       <c r="E4">
-        <v>0.4443847039391287</v>
+        <v>0.4443847039390292</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.103267794846403</v>
+        <v>7.103267794846431</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1599587318951272</v>
+        <v>0.1599587318951343</v>
       </c>
       <c r="J4">
-        <v>0.5332409160826614</v>
+        <v>0.533240916082633</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.833491128967069</v>
+        <v>1.833491128966642</v>
       </c>
       <c r="C5">
-        <v>0.4392260463615401</v>
+        <v>0.4392260463610853</v>
       </c>
       <c r="D5">
-        <v>0.2752518827938246</v>
+        <v>0.2752518827935546</v>
       </c>
       <c r="E5">
         <v>0.4240275564459566</v>
@@ -541,16 +541,16 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.825570178288132</v>
+        <v>6.82557017828816</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1525127561944721</v>
+        <v>0.1525127561945183</v>
       </c>
       <c r="J5">
-        <v>0.5080831916245785</v>
+        <v>0.5080831916245714</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -567,28 +567,28 @@
         <v>1.818822603999024</v>
       </c>
       <c r="C6">
-        <v>0.43549631463938</v>
+        <v>0.4354963146385273</v>
       </c>
       <c r="D6">
-        <v>0.2731829702671718</v>
+        <v>0.2731829702678112</v>
       </c>
       <c r="E6">
-        <v>0.4206697820732401</v>
+        <v>0.4206697820733751</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.779712665068104</v>
+        <v>6.779712665068132</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1512847460713118</v>
+        <v>0.1512847460713012</v>
       </c>
       <c r="J6">
-        <v>0.5039372634561872</v>
+        <v>0.5039372634562014</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,31 +602,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.921273602691514</v>
+        <v>1.9212736026914</v>
       </c>
       <c r="C7">
-        <v>0.4615651096105182</v>
+        <v>0.4615651096092108</v>
       </c>
       <c r="D7">
-        <v>0.2876221800475633</v>
+        <v>0.287622180047407</v>
       </c>
       <c r="E7">
-        <v>0.4441086035861161</v>
+        <v>0.4441086035861446</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.099505093622355</v>
+        <v>7.099505093622241</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1598577324426529</v>
+        <v>0.1598577324425925</v>
       </c>
       <c r="J7">
-        <v>0.5328994554622</v>
+        <v>0.5328994554621715</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.391574921675215</v>
+        <v>2.391574921674987</v>
       </c>
       <c r="C8">
-        <v>0.5818309230994032</v>
+        <v>0.5818309230993179</v>
       </c>
       <c r="D8">
-        <v>0.3535957034877555</v>
+        <v>0.3535957034874997</v>
       </c>
       <c r="E8">
-        <v>0.5513620277187954</v>
+        <v>0.5513620277187385</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1991177623604479</v>
+        <v>0.1991177623604301</v>
       </c>
       <c r="J8">
-        <v>0.6660186353413877</v>
+        <v>0.6660186353413948</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.408808232873582</v>
+        <v>3.408808232873412</v>
       </c>
       <c r="C9">
-        <v>0.8456598737321315</v>
+        <v>0.8456598737312504</v>
       </c>
       <c r="D9">
-        <v>0.494736283691168</v>
+        <v>0.4947362836912816</v>
       </c>
       <c r="E9">
-        <v>0.7819992041536921</v>
+        <v>0.7819992041537063</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.63654964816021</v>
+        <v>11.63654964816033</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2837593342998019</v>
+        <v>0.2837593342998588</v>
       </c>
       <c r="J9">
         <v>0.9549819456732109</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.251852075217187</v>
+        <v>4.251852075216561</v>
       </c>
       <c r="C10">
-        <v>1.068466249059071</v>
+        <v>1.068466249058048</v>
       </c>
       <c r="D10">
-        <v>0.6102518687859515</v>
+        <v>0.6102518687852125</v>
       </c>
       <c r="E10">
-        <v>0.9722741310081489</v>
+        <v>0.9722741310081346</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>14.13652645099165</v>
+        <v>14.13652645099108</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.35385715824534</v>
+        <v>0.3538571582453329</v>
       </c>
       <c r="J10">
-        <v>1.195617408364598</v>
+        <v>1.195617408364527</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.668093984351117</v>
+        <v>4.668093984350946</v>
       </c>
       <c r="C11">
-        <v>1.179933937861279</v>
+        <v>1.179933937861364</v>
       </c>
       <c r="D11">
-        <v>0.6668275077503552</v>
+        <v>0.6668275077497583</v>
       </c>
       <c r="E11">
-        <v>1.066039415620324</v>
+        <v>1.066039415620409</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>15.35442966363439</v>
+        <v>15.35442966363411</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3885013506033914</v>
+        <v>0.3885013506034056</v>
       </c>
       <c r="J11">
-        <v>1.314831772592171</v>
+        <v>1.3148317725921</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.83182393029</v>
+        <v>4.831823930290113</v>
       </c>
       <c r="C12">
-        <v>1.224051266398021</v>
+        <v>1.224051266398192</v>
       </c>
       <c r="D12">
-        <v>0.6890005356012523</v>
+        <v>0.6890005356014228</v>
       </c>
       <c r="E12">
-        <v>1.102898981495031</v>
+        <v>1.102898981495116</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15.8306451929185</v>
+        <v>15.83064519291815</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4021395134174028</v>
+        <v>0.4021395134173602</v>
       </c>
       <c r="J12">
-        <v>1.361799933558601</v>
+        <v>1.361799933558558</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -833,28 +833,28 @@
         <v>4.796262796358462</v>
       </c>
       <c r="C13">
-        <v>1.214456121254301</v>
+        <v>1.214456121254926</v>
       </c>
       <c r="D13">
         <v>0.6841885591072412</v>
       </c>
       <c r="E13">
-        <v>1.094894272854646</v>
+        <v>1.09489427285466</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>15.7273491758877</v>
+        <v>15.72734917588758</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3991767946225906</v>
+        <v>0.3991767946225835</v>
       </c>
       <c r="J13">
-        <v>1.351595116405704</v>
+        <v>1.351595116405718</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.681432068965137</v>
+        <v>4.68143206896508</v>
       </c>
       <c r="C14">
         <v>1.183522139273151</v>
       </c>
       <c r="D14">
-        <v>0.6686355145330367</v>
+        <v>0.6686355145327241</v>
       </c>
       <c r="E14">
-        <v>1.069042577959806</v>
+        <v>1.069042577959834</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -889,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3896121145210927</v>
+        <v>0.3896121145210572</v>
       </c>
       <c r="J14">
-        <v>1.318656391980525</v>
+        <v>1.318656391980454</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.611939671549351</v>
+        <v>4.611939671549123</v>
       </c>
       <c r="C15">
-        <v>1.164838530860834</v>
+        <v>1.164838530860237</v>
       </c>
       <c r="D15">
-        <v>0.6592123412999911</v>
+        <v>0.6592123413001332</v>
       </c>
       <c r="E15">
-        <v>1.053394978594156</v>
+        <v>1.053394978594298</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>15.19073508000491</v>
+        <v>15.19073508000486</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3838254217672201</v>
+        <v>0.3838254217672272</v>
       </c>
       <c r="J15">
-        <v>1.298732930804789</v>
+        <v>1.298732930804832</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.225418437791802</v>
+        <v>4.225418437792371</v>
       </c>
       <c r="C16">
-        <v>1.061420520140217</v>
+        <v>1.061420520140672</v>
       </c>
       <c r="D16">
-        <v>0.60664891863496</v>
+        <v>0.6066489186341641</v>
       </c>
       <c r="E16">
-        <v>0.9663161925863193</v>
+        <v>0.966316192586163</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>14.05882614728785</v>
+        <v>14.0588261472879</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3516581633602556</v>
+        <v>0.3516581633603835</v>
       </c>
       <c r="J16">
-        <v>1.188055781329268</v>
+        <v>1.188055781329311</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.99755249409958</v>
+        <v>3.997552494099693</v>
       </c>
       <c r="C17">
-        <v>1.000846097150287</v>
+        <v>1.000846097150799</v>
       </c>
       <c r="D17">
-        <v>0.5755398958775118</v>
+        <v>0.5755398958778812</v>
       </c>
       <c r="E17">
-        <v>0.9149377844394166</v>
+        <v>0.9149377844394309</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.38722348797657</v>
+        <v>13.3872234879764</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3327063130520003</v>
+        <v>0.33270631305205</v>
       </c>
       <c r="J17">
         <v>1.122917029589914</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.86946702233945</v>
+        <v>3.86946702233962</v>
       </c>
       <c r="C18">
-        <v>0.9669231576009167</v>
+        <v>0.9669231576004904</v>
       </c>
       <c r="D18">
-        <v>0.5580132169901901</v>
+        <v>0.5580132169908723</v>
       </c>
       <c r="E18">
-        <v>0.8860411450634302</v>
+        <v>0.8860411450633592</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>13.00827275162789</v>
+        <v>13.00827275162803</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3220559583426734</v>
+        <v>0.3220559583426947</v>
       </c>
       <c r="J18">
-        <v>1.086336947451372</v>
+        <v>1.086336947451443</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.826574837732778</v>
+        <v>3.826574837732949</v>
       </c>
       <c r="C19">
-        <v>0.9555835204390064</v>
+        <v>0.955583520438978</v>
       </c>
       <c r="D19">
-        <v>0.5521375412322698</v>
+        <v>0.5521375412325256</v>
       </c>
       <c r="E19">
-        <v>0.8763616215685488</v>
+        <v>0.8763616215685062</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.88113838778492</v>
+        <v>12.881138387785</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3184897762326102</v>
+        <v>0.3184897762326244</v>
       </c>
       <c r="J19">
-        <v>1.074092906472586</v>
+        <v>1.074092906472572</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.021492320352593</v>
+        <v>4.021492320352309</v>
       </c>
       <c r="C20">
-        <v>1.007196525194615</v>
+        <v>1.00719652519453</v>
       </c>
       <c r="D20">
-        <v>0.5788125139801537</v>
+        <v>0.5788125139797273</v>
       </c>
       <c r="E20">
-        <v>0.9203373497082055</v>
+        <v>0.9203373497082339</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.45793577464292</v>
+        <v>13.45793577464298</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.334697103246711</v>
+        <v>0.3346971032467252</v>
       </c>
       <c r="J20">
-        <v>1.129756816281301</v>
+        <v>1.129756816281372</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.714981418114348</v>
+        <v>4.714981418114576</v>
       </c>
       <c r="C21">
-        <v>1.192552075560087</v>
+        <v>1.192552075559945</v>
       </c>
       <c r="D21">
-        <v>0.6731818639844676</v>
+        <v>0.673181863985036</v>
       </c>
       <c r="E21">
-        <v>1.076596092594201</v>
+        <v>1.076596092594244</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>15.4909663871382</v>
+        <v>15.49096638713871</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3924062182936225</v>
+        <v>0.3924062182936012</v>
       </c>
       <c r="J21">
-        <v>1.328277721613858</v>
+        <v>1.328277721613787</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.204842924623165</v>
+        <v>5.204842924623563</v>
       </c>
       <c r="C22">
-        <v>1.325142619045494</v>
+        <v>1.32514261904663</v>
       </c>
       <c r="D22">
-        <v>0.7393472346171279</v>
+        <v>0.7393472346169006</v>
       </c>
       <c r="E22">
-        <v>1.186837199592262</v>
+        <v>1.186837199592176</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>16.90970195523693</v>
+        <v>16.90970195523664</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4332393017079923</v>
+        <v>0.433239301708042</v>
       </c>
       <c r="J22">
-        <v>1.468965593644725</v>
+        <v>1.468965593644697</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,25 +1213,25 @@
         <v>4.939450111668293</v>
       </c>
       <c r="C23">
-        <v>1.253135684265999</v>
+        <v>1.253135684266113</v>
       </c>
       <c r="D23">
-        <v>0.7035509990560058</v>
+        <v>0.7035509990562048</v>
       </c>
       <c r="E23">
-        <v>1.127122325253623</v>
+        <v>1.127122325253595</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>16.1428177033917</v>
+        <v>16.14281770339124</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4111083504996458</v>
+        <v>0.4111083504996529</v>
       </c>
       <c r="J23">
         <v>1.392697227583952</v>
@@ -1251,28 +1251,28 @@
         <v>4.010660136013712</v>
       </c>
       <c r="C24">
-        <v>1.004322718783158</v>
+        <v>1.004322718783214</v>
       </c>
       <c r="D24">
-        <v>0.577331859310533</v>
+        <v>0.5773318593101351</v>
       </c>
       <c r="E24">
-        <v>0.9178942304811386</v>
+        <v>0.9178942304812097</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.42594468279211</v>
+        <v>13.42594468279208</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3337963115601852</v>
+        <v>0.3337963115600928</v>
       </c>
       <c r="J24">
-        <v>1.126661871675836</v>
+        <v>1.126661871675793</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.120086821398786</v>
+        <v>3.120086821398729</v>
       </c>
       <c r="C25">
-        <v>0.7702365883401114</v>
+        <v>0.7702365883405093</v>
       </c>
       <c r="D25">
-        <v>0.454879149429587</v>
+        <v>0.4548791494297859</v>
       </c>
       <c r="E25">
         <v>0.7166806340205767</v>
@@ -1307,10 +1307,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2597543669284192</v>
+        <v>0.2597543669284335</v>
       </c>
       <c r="J25">
-        <v>0.8728149447295124</v>
+        <v>0.872814944729484</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_2/res_line/pl_mw.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.524315280527958</v>
+        <v>2.524315280527844</v>
       </c>
       <c r="C2">
-        <v>0.615962837244723</v>
+        <v>0.6159628372446093</v>
       </c>
       <c r="D2">
-        <v>0.3721297225235389</v>
+        <v>0.372129722523681</v>
       </c>
       <c r="E2">
-        <v>0.5815486323781585</v>
+        <v>0.5815486323781158</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8.960797951860769</v>
+        <v>8.960797951860911</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2101779707941631</v>
+        <v>0.2101779707941844</v>
       </c>
       <c r="J2">
-        <v>0.7036434906418592</v>
+        <v>0.7036434906418947</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.145664518465196</v>
+        <v>2.145664518465367</v>
       </c>
       <c r="C3">
-        <v>0.5188206395320094</v>
+        <v>0.5188206395328621</v>
       </c>
       <c r="D3">
-        <v>0.319161111625121</v>
+        <v>0.3191611116246378</v>
       </c>
       <c r="E3">
-        <v>0.4953457873109812</v>
+        <v>0.4953457873112157</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.796092214049253</v>
+        <v>7.796092214049224</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1786062743684091</v>
+        <v>0.1786062743684482</v>
       </c>
       <c r="J3">
-        <v>0.5963780993620489</v>
+        <v>0.5963780993620276</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.922481222145024</v>
+        <v>1.922481222144825</v>
       </c>
       <c r="C4">
-        <v>0.4618726548368386</v>
+        <v>0.4618726548363554</v>
       </c>
       <c r="D4">
-        <v>0.2877922286229619</v>
+        <v>0.2877922286236725</v>
       </c>
       <c r="E4">
-        <v>0.4443847039390292</v>
+        <v>0.4443847039391287</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.103267794846431</v>
+        <v>7.103267794846403</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1599587318951343</v>
+        <v>0.1599587318951272</v>
       </c>
       <c r="J4">
-        <v>0.533240916082633</v>
+        <v>0.5332409160826614</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.833491128966642</v>
+        <v>1.833491128967069</v>
       </c>
       <c r="C5">
-        <v>0.4392260463610853</v>
+        <v>0.4392260463615401</v>
       </c>
       <c r="D5">
-        <v>0.2752518827935546</v>
+        <v>0.2752518827938246</v>
       </c>
       <c r="E5">
         <v>0.4240275564459566</v>
@@ -541,16 +541,16 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.82557017828816</v>
+        <v>6.825570178288132</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1525127561945183</v>
+        <v>0.1525127561944721</v>
       </c>
       <c r="J5">
-        <v>0.5080831916245714</v>
+        <v>0.5080831916245785</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -567,28 +567,28 @@
         <v>1.818822603999024</v>
       </c>
       <c r="C6">
-        <v>0.4354963146385273</v>
+        <v>0.43549631463938</v>
       </c>
       <c r="D6">
-        <v>0.2731829702678112</v>
+        <v>0.2731829702671718</v>
       </c>
       <c r="E6">
-        <v>0.4206697820733751</v>
+        <v>0.4206697820732401</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.779712665068132</v>
+        <v>6.779712665068104</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1512847460713012</v>
+        <v>0.1512847460713118</v>
       </c>
       <c r="J6">
-        <v>0.5039372634562014</v>
+        <v>0.5039372634561872</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,31 +602,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.9212736026914</v>
+        <v>1.921273602691514</v>
       </c>
       <c r="C7">
-        <v>0.4615651096092108</v>
+        <v>0.4615651096105182</v>
       </c>
       <c r="D7">
-        <v>0.287622180047407</v>
+        <v>0.2876221800475633</v>
       </c>
       <c r="E7">
-        <v>0.4441086035861446</v>
+        <v>0.4441086035861161</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.099505093622241</v>
+        <v>7.099505093622355</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1598577324425925</v>
+        <v>0.1598577324426529</v>
       </c>
       <c r="J7">
-        <v>0.5328994554621715</v>
+        <v>0.5328994554622</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.391574921674987</v>
+        <v>2.391574921675215</v>
       </c>
       <c r="C8">
-        <v>0.5818309230993179</v>
+        <v>0.5818309230994032</v>
       </c>
       <c r="D8">
-        <v>0.3535957034874997</v>
+        <v>0.3535957034877555</v>
       </c>
       <c r="E8">
-        <v>0.5513620277187385</v>
+        <v>0.5513620277187954</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1991177623604301</v>
+        <v>0.1991177623604479</v>
       </c>
       <c r="J8">
-        <v>0.6660186353413948</v>
+        <v>0.6660186353413877</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.408808232873412</v>
+        <v>3.408808232873582</v>
       </c>
       <c r="C9">
-        <v>0.8456598737312504</v>
+        <v>0.8456598737321315</v>
       </c>
       <c r="D9">
-        <v>0.4947362836912816</v>
+        <v>0.494736283691168</v>
       </c>
       <c r="E9">
-        <v>0.7819992041537063</v>
+        <v>0.7819992041536921</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.63654964816033</v>
+        <v>11.63654964816021</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2837593342998588</v>
+        <v>0.2837593342998019</v>
       </c>
       <c r="J9">
         <v>0.9549819456732109</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.251852075216561</v>
+        <v>4.251852075217187</v>
       </c>
       <c r="C10">
-        <v>1.068466249058048</v>
+        <v>1.068466249059071</v>
       </c>
       <c r="D10">
-        <v>0.6102518687852125</v>
+        <v>0.6102518687859515</v>
       </c>
       <c r="E10">
-        <v>0.9722741310081346</v>
+        <v>0.9722741310081489</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>14.13652645099108</v>
+        <v>14.13652645099165</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3538571582453329</v>
+        <v>0.35385715824534</v>
       </c>
       <c r="J10">
-        <v>1.195617408364527</v>
+        <v>1.195617408364598</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.668093984350946</v>
+        <v>4.668093984351117</v>
       </c>
       <c r="C11">
-        <v>1.179933937861364</v>
+        <v>1.179933937861279</v>
       </c>
       <c r="D11">
-        <v>0.6668275077497583</v>
+        <v>0.6668275077503552</v>
       </c>
       <c r="E11">
-        <v>1.066039415620409</v>
+        <v>1.066039415620324</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>15.35442966363411</v>
+        <v>15.35442966363439</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3885013506034056</v>
+        <v>0.3885013506033914</v>
       </c>
       <c r="J11">
-        <v>1.3148317725921</v>
+        <v>1.314831772592171</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.831823930290113</v>
+        <v>4.83182393029</v>
       </c>
       <c r="C12">
-        <v>1.224051266398192</v>
+        <v>1.224051266398021</v>
       </c>
       <c r="D12">
-        <v>0.6890005356014228</v>
+        <v>0.6890005356012523</v>
       </c>
       <c r="E12">
-        <v>1.102898981495116</v>
+        <v>1.102898981495031</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15.83064519291815</v>
+        <v>15.8306451929185</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4021395134173602</v>
+        <v>0.4021395134174028</v>
       </c>
       <c r="J12">
-        <v>1.361799933558558</v>
+        <v>1.361799933558601</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -833,28 +833,28 @@
         <v>4.796262796358462</v>
       </c>
       <c r="C13">
-        <v>1.214456121254926</v>
+        <v>1.214456121254301</v>
       </c>
       <c r="D13">
         <v>0.6841885591072412</v>
       </c>
       <c r="E13">
-        <v>1.09489427285466</v>
+        <v>1.094894272854646</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>15.72734917588758</v>
+        <v>15.7273491758877</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3991767946225835</v>
+        <v>0.3991767946225906</v>
       </c>
       <c r="J13">
-        <v>1.351595116405718</v>
+        <v>1.351595116405704</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.68143206896508</v>
+        <v>4.681432068965137</v>
       </c>
       <c r="C14">
         <v>1.183522139273151</v>
       </c>
       <c r="D14">
-        <v>0.6686355145327241</v>
+        <v>0.6686355145330367</v>
       </c>
       <c r="E14">
-        <v>1.069042577959834</v>
+        <v>1.069042577959806</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -889,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3896121145210572</v>
+        <v>0.3896121145210927</v>
       </c>
       <c r="J14">
-        <v>1.318656391980454</v>
+        <v>1.318656391980525</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.611939671549123</v>
+        <v>4.611939671549351</v>
       </c>
       <c r="C15">
-        <v>1.164838530860237</v>
+        <v>1.164838530860834</v>
       </c>
       <c r="D15">
-        <v>0.6592123413001332</v>
+        <v>0.6592123412999911</v>
       </c>
       <c r="E15">
-        <v>1.053394978594298</v>
+        <v>1.053394978594156</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>15.19073508000486</v>
+        <v>15.19073508000491</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3838254217672272</v>
+        <v>0.3838254217672201</v>
       </c>
       <c r="J15">
-        <v>1.298732930804832</v>
+        <v>1.298732930804789</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.225418437792371</v>
+        <v>4.225418437791802</v>
       </c>
       <c r="C16">
-        <v>1.061420520140672</v>
+        <v>1.061420520140217</v>
       </c>
       <c r="D16">
-        <v>0.6066489186341641</v>
+        <v>0.60664891863496</v>
       </c>
       <c r="E16">
-        <v>0.966316192586163</v>
+        <v>0.9663161925863193</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>14.0588261472879</v>
+        <v>14.05882614728785</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3516581633603835</v>
+        <v>0.3516581633602556</v>
       </c>
       <c r="J16">
-        <v>1.188055781329311</v>
+        <v>1.188055781329268</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.997552494099693</v>
+        <v>3.99755249409958</v>
       </c>
       <c r="C17">
-        <v>1.000846097150799</v>
+        <v>1.000846097150287</v>
       </c>
       <c r="D17">
-        <v>0.5755398958778812</v>
+        <v>0.5755398958775118</v>
       </c>
       <c r="E17">
-        <v>0.9149377844394309</v>
+        <v>0.9149377844394166</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.3872234879764</v>
+        <v>13.38722348797657</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.33270631305205</v>
+        <v>0.3327063130520003</v>
       </c>
       <c r="J17">
         <v>1.122917029589914</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.86946702233962</v>
+        <v>3.86946702233945</v>
       </c>
       <c r="C18">
-        <v>0.9669231576004904</v>
+        <v>0.9669231576009167</v>
       </c>
       <c r="D18">
-        <v>0.5580132169908723</v>
+        <v>0.5580132169901901</v>
       </c>
       <c r="E18">
-        <v>0.8860411450633592</v>
+        <v>0.8860411450634302</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>13.00827275162803</v>
+        <v>13.00827275162789</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3220559583426947</v>
+        <v>0.3220559583426734</v>
       </c>
       <c r="J18">
-        <v>1.086336947451443</v>
+        <v>1.086336947451372</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.826574837732949</v>
+        <v>3.826574837732778</v>
       </c>
       <c r="C19">
-        <v>0.955583520438978</v>
+        <v>0.9555835204390064</v>
       </c>
       <c r="D19">
-        <v>0.5521375412325256</v>
+        <v>0.5521375412322698</v>
       </c>
       <c r="E19">
-        <v>0.8763616215685062</v>
+        <v>0.8763616215685488</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.881138387785</v>
+        <v>12.88113838778492</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3184897762326244</v>
+        <v>0.3184897762326102</v>
       </c>
       <c r="J19">
-        <v>1.074092906472572</v>
+        <v>1.074092906472586</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.021492320352309</v>
+        <v>4.021492320352593</v>
       </c>
       <c r="C20">
-        <v>1.00719652519453</v>
+        <v>1.007196525194615</v>
       </c>
       <c r="D20">
-        <v>0.5788125139797273</v>
+        <v>0.5788125139801537</v>
       </c>
       <c r="E20">
-        <v>0.9203373497082339</v>
+        <v>0.9203373497082055</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.45793577464298</v>
+        <v>13.45793577464292</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3346971032467252</v>
+        <v>0.334697103246711</v>
       </c>
       <c r="J20">
-        <v>1.129756816281372</v>
+        <v>1.129756816281301</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.714981418114576</v>
+        <v>4.714981418114348</v>
       </c>
       <c r="C21">
-        <v>1.192552075559945</v>
+        <v>1.192552075560087</v>
       </c>
       <c r="D21">
-        <v>0.673181863985036</v>
+        <v>0.6731818639844676</v>
       </c>
       <c r="E21">
-        <v>1.076596092594244</v>
+        <v>1.076596092594201</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>15.49096638713871</v>
+        <v>15.4909663871382</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3924062182936012</v>
+        <v>0.3924062182936225</v>
       </c>
       <c r="J21">
-        <v>1.328277721613787</v>
+        <v>1.328277721613858</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.204842924623563</v>
+        <v>5.204842924623165</v>
       </c>
       <c r="C22">
-        <v>1.32514261904663</v>
+        <v>1.325142619045494</v>
       </c>
       <c r="D22">
-        <v>0.7393472346169006</v>
+        <v>0.7393472346171279</v>
       </c>
       <c r="E22">
-        <v>1.186837199592176</v>
+        <v>1.186837199592262</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>16.90970195523664</v>
+        <v>16.90970195523693</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.433239301708042</v>
+        <v>0.4332393017079923</v>
       </c>
       <c r="J22">
-        <v>1.468965593644697</v>
+        <v>1.468965593644725</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,25 +1213,25 @@
         <v>4.939450111668293</v>
       </c>
       <c r="C23">
-        <v>1.253135684266113</v>
+        <v>1.253135684265999</v>
       </c>
       <c r="D23">
-        <v>0.7035509990562048</v>
+        <v>0.7035509990560058</v>
       </c>
       <c r="E23">
-        <v>1.127122325253595</v>
+        <v>1.127122325253623</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>16.14281770339124</v>
+        <v>16.1428177033917</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4111083504996529</v>
+        <v>0.4111083504996458</v>
       </c>
       <c r="J23">
         <v>1.392697227583952</v>
@@ -1251,28 +1251,28 @@
         <v>4.010660136013712</v>
       </c>
       <c r="C24">
-        <v>1.004322718783214</v>
+        <v>1.004322718783158</v>
       </c>
       <c r="D24">
-        <v>0.5773318593101351</v>
+        <v>0.577331859310533</v>
       </c>
       <c r="E24">
-        <v>0.9178942304812097</v>
+        <v>0.9178942304811386</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.42594468279208</v>
+        <v>13.42594468279211</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3337963115600928</v>
+        <v>0.3337963115601852</v>
       </c>
       <c r="J24">
-        <v>1.126661871675793</v>
+        <v>1.126661871675836</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.120086821398729</v>
+        <v>3.120086821398786</v>
       </c>
       <c r="C25">
-        <v>0.7702365883405093</v>
+        <v>0.7702365883401114</v>
       </c>
       <c r="D25">
-        <v>0.4548791494297859</v>
+        <v>0.454879149429587</v>
       </c>
       <c r="E25">
         <v>0.7166806340205767</v>
@@ -1307,10 +1307,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2597543669284335</v>
+        <v>0.2597543669284192</v>
       </c>
       <c r="J25">
-        <v>0.872814944729484</v>
+        <v>0.8728149447295124</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_2/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.524315280527844</v>
+        <v>2.52354697013601</v>
       </c>
       <c r="C2">
-        <v>0.6159628372446093</v>
+        <v>0.6155886200737655</v>
       </c>
       <c r="D2">
-        <v>0.372129722523681</v>
+        <v>0.3720732282040728</v>
       </c>
       <c r="E2">
-        <v>0.5815486323781158</v>
+        <v>0.5814536882062669</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8.960797951860911</v>
+        <v>2.92958899405437</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>5.980763148386615</v>
       </c>
       <c r="I2">
-        <v>0.2101779707941844</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.7036434906418947</v>
+        <v>0.2101428328970059</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.7033813799582589</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.145664518465367</v>
+        <v>2.145183550112733</v>
       </c>
       <c r="C3">
-        <v>0.5188206395328621</v>
+        <v>0.5185686390043713</v>
       </c>
       <c r="D3">
-        <v>0.3191611116246378</v>
+        <v>0.319124438602941</v>
       </c>
       <c r="E3">
-        <v>0.4953457873112157</v>
+        <v>0.4952839808733387</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.796092214049224</v>
+        <v>2.540520872727541</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5.2128901936467</v>
       </c>
       <c r="I3">
-        <v>0.1786062743684482</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5963780993620276</v>
+        <v>0.1785833983341298</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5962099297017645</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.922481222144825</v>
+        <v>1.922140631659659</v>
       </c>
       <c r="C4">
-        <v>0.4618726548363554</v>
+        <v>0.4616828910938864</v>
       </c>
       <c r="D4">
-        <v>0.2877922286236725</v>
+        <v>0.2877652423116643</v>
       </c>
       <c r="E4">
-        <v>0.4443847039391287</v>
+        <v>0.4443390717228013</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.103267794846403</v>
+        <v>2.309019683917541</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4.756157743681484</v>
       </c>
       <c r="I4">
-        <v>0.1599587318951272</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5332409160826614</v>
+        <v>0.1599418330339653</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5331192284707527</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.833491128967069</v>
+        <v>1.833200391239558</v>
       </c>
       <c r="C5">
-        <v>0.4392260463615401</v>
+        <v>0.4390590433712589</v>
       </c>
       <c r="D5">
-        <v>0.2752518827938246</v>
+        <v>0.275228357725112</v>
       </c>
       <c r="E5">
-        <v>0.4240275564459566</v>
+        <v>0.4239877047710223</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.825570178288132</v>
+        <v>2.216214327399967</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4.573100843690582</v>
       </c>
       <c r="I5">
-        <v>0.1525127561944721</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5080831916245785</v>
+        <v>0.1524979926425054</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5079781638658716</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.818822603999024</v>
+        <v>1.818539743593874</v>
       </c>
       <c r="C6">
-        <v>0.43549631463938</v>
+        <v>0.4353329496276501</v>
       </c>
       <c r="D6">
-        <v>0.2731829702671718</v>
+        <v>0.2731599940196503</v>
       </c>
       <c r="E6">
-        <v>0.4206697820732401</v>
+        <v>0.4206308472074127</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.779712665068104</v>
+        <v>2.200888053798508</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4.542872459759622</v>
       </c>
       <c r="I6">
-        <v>0.1512847460713118</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5039372634561872</v>
+        <v>0.151270321157682</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5038348777524746</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.921273602691514</v>
+        <v>1.920933712303878</v>
       </c>
       <c r="C7">
-        <v>0.4615651096105182</v>
+        <v>0.4613756626354473</v>
       </c>
       <c r="D7">
-        <v>0.2876221800475633</v>
+        <v>0.2875952422243131</v>
       </c>
       <c r="E7">
-        <v>0.4441086035861161</v>
+        <v>0.4440630523365314</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.099505093622355</v>
+        <v>2.307762265684232</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4.753677345609475</v>
       </c>
       <c r="I7">
-        <v>0.1598577324426529</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5328994554622</v>
+        <v>0.1598408634925761</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.532778001145914</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.391574921675215</v>
+        <v>2.390914324812854</v>
       </c>
       <c r="C8">
-        <v>0.5818309230994032</v>
+        <v>0.5815019207583134</v>
       </c>
       <c r="D8">
-        <v>0.3535957034877555</v>
+        <v>0.3535466534752487</v>
       </c>
       <c r="E8">
-        <v>0.5513620277187954</v>
+        <v>0.551279539023156</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.553942368928034</v>
+        <v>2.793693842287126</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5.712522621861723</v>
       </c>
       <c r="I8">
-        <v>0.1991177623604479</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6660186353413877</v>
+        <v>0.19908723604226</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6657915997376378</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.408808232873582</v>
+        <v>3.407129005378067</v>
       </c>
       <c r="C9">
-        <v>0.8456598737321315</v>
+        <v>0.8449182535392765</v>
       </c>
       <c r="D9">
-        <v>0.494736283691168</v>
+        <v>0.4946155217838566</v>
       </c>
       <c r="E9">
-        <v>0.7819992041536921</v>
+        <v>0.7817960857679793</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.63654964816021</v>
+        <v>3.822992459803629</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.744968116722674</v>
       </c>
       <c r="I9">
-        <v>0.2837593342998019</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.9549819456732109</v>
+        <v>0.283684008874765</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.9544267250394824</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.251852075217187</v>
+        <v>4.248977544132117</v>
       </c>
       <c r="C10">
-        <v>1.068466249059071</v>
+        <v>1.06726155682847</v>
       </c>
       <c r="D10">
-        <v>0.6102518687859515</v>
+        <v>0.6100430334429348</v>
       </c>
       <c r="E10">
-        <v>0.9722741310081489</v>
+        <v>0.9719209218139753</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>14.13652645099165</v>
+        <v>4.657246421232287</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9.393219776143553</v>
       </c>
       <c r="I10">
-        <v>0.35385715824534</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1.195617408364598</v>
+        <v>0.3537257235806806</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.194682080556319</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.668093984351117</v>
+        <v>4.664500989852911</v>
       </c>
       <c r="C11">
-        <v>1.179933937861279</v>
+        <v>1.178456038240256</v>
       </c>
       <c r="D11">
-        <v>0.6668275077503552</v>
+        <v>0.6665639211918801</v>
       </c>
       <c r="E11">
-        <v>1.066039415620324</v>
+        <v>1.065591949805523</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>15.35442966363439</v>
+        <v>5.063515884872345</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>10.19610898174039</v>
       </c>
       <c r="I11">
-        <v>0.3885013506033914</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1.314831772592171</v>
+        <v>0.3883345089317771</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.31366920347341</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.83182393029</v>
+        <v>4.827923278698506</v>
       </c>
       <c r="C12">
-        <v>1.224051266398021</v>
+        <v>1.222457171413964</v>
       </c>
       <c r="D12">
-        <v>0.6890005356012523</v>
+        <v>0.688713130764512</v>
       </c>
       <c r="E12">
-        <v>1.102898981495031</v>
+        <v>1.102410305817045</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15.8306451929185</v>
+        <v>5.222345530704217</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>10.51002726274208</v>
       </c>
       <c r="I12">
-        <v>0.4021395134174028</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1.361799933558601</v>
+        <v>0.4019571553995362</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.360540248439051</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.796262796358462</v>
+        <v>4.792430207453094</v>
       </c>
       <c r="C13">
-        <v>1.214456121254301</v>
+        <v>1.212887696238226</v>
       </c>
       <c r="D13">
-        <v>0.6841885591072412</v>
+        <v>0.6839064419902741</v>
       </c>
       <c r="E13">
-        <v>1.094894272854646</v>
+        <v>1.094414756202539</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>15.7273491758877</v>
+        <v>5.187895049942426</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10.44193633141134</v>
       </c>
       <c r="I13">
-        <v>0.3991767946225906</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1.351595116405704</v>
+        <v>0.3989978869617872</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.350356907497485</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.681432068965137</v>
+        <v>4.677814554064071</v>
       </c>
       <c r="C14">
-        <v>1.183522139273151</v>
+        <v>1.182034963138591</v>
       </c>
       <c r="D14">
-        <v>0.6686355145330367</v>
+        <v>0.6683700375675699</v>
       </c>
       <c r="E14">
-        <v>1.069042577959806</v>
+        <v>1.068591845814339</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>15.39328364030706</v>
+        <v>5.076475215271444</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>10.2217217757547</v>
       </c>
       <c r="I14">
-        <v>0.3896121145210927</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1.318656391980525</v>
+        <v>0.3894440437782194</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.317486078878503</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.611939671549351</v>
+        <v>4.608448868233779</v>
       </c>
       <c r="C15">
-        <v>1.164838530860834</v>
+        <v>1.163399322960316</v>
       </c>
       <c r="D15">
-        <v>0.6592123412999911</v>
+        <v>0.6589566181457656</v>
       </c>
       <c r="E15">
-        <v>1.053394978594156</v>
+        <v>1.052961091223736</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>15.19073508000491</v>
+        <v>5.008916192923834</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>10.08819952182205</v>
       </c>
       <c r="I15">
-        <v>0.3838254217672201</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1.298732930804789</v>
+        <v>0.3836636880109623</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.297602642971427</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.225418437791802</v>
+        <v>4.222586551348343</v>
       </c>
       <c r="C16">
-        <v>1.061420520140217</v>
+        <v>1.060232140263423</v>
       </c>
       <c r="D16">
-        <v>0.60664891863496</v>
+        <v>0.606443292728585</v>
       </c>
       <c r="E16">
-        <v>0.9663161925863193</v>
+        <v>0.9659684871341625</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>14.05882614728785</v>
+        <v>4.631323741811627</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>9.341994384271345</v>
       </c>
       <c r="I16">
-        <v>0.3516581633602556</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1.188055781329268</v>
+        <v>0.351528792373422</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.187133964628629</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.99755249409958</v>
+        <v>3.995073968680174</v>
       </c>
       <c r="C17">
-        <v>1.000846097150287</v>
+        <v>0.9997933826209362</v>
       </c>
       <c r="D17">
-        <v>0.5755398958775118</v>
+        <v>0.5753606801728495</v>
       </c>
       <c r="E17">
-        <v>0.9149377844394166</v>
+        <v>0.914635273895172</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.38722348797657</v>
+        <v>4.407244404095906</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>8.899217999103314</v>
       </c>
       <c r="I17">
-        <v>0.3327063130520003</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>1.122917029589914</v>
+        <v>0.3325938714352503</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.12210728791473</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.86946702233945</v>
+        <v>3.867176121563602</v>
       </c>
       <c r="C18">
-        <v>0.9669231576009167</v>
+        <v>0.9659428813356783</v>
       </c>
       <c r="D18">
-        <v>0.5580132169901901</v>
+        <v>0.5578478870529295</v>
       </c>
       <c r="E18">
-        <v>0.8860411450634302</v>
+        <v>0.8857623269174724</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>13.00827275162789</v>
+        <v>4.280794791994055</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>8.649375386052441</v>
       </c>
       <c r="I18">
-        <v>0.3220559583426734</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>1.086336947451372</v>
+        <v>0.3219523790782617</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.085586811172192</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.826574837732778</v>
+        <v>3.824345030149232</v>
       </c>
       <c r="C19">
-        <v>0.9555835204390064</v>
+        <v>0.9546268991866214</v>
       </c>
       <c r="D19">
-        <v>0.5521375412322698</v>
+        <v>0.5519767115033289</v>
       </c>
       <c r="E19">
-        <v>0.8763616215685488</v>
+        <v>0.8760904712056572</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.88113838778492</v>
+        <v>4.238370005427356</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8.56555463159907</v>
       </c>
       <c r="I19">
-        <v>0.3184897762326102</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>1.074092906472586</v>
+        <v>0.3183890632554736</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.073362194824639</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.021492320352593</v>
+        <v>4.018977857200014</v>
       </c>
       <c r="C20">
-        <v>1.007196525194615</v>
+        <v>1.00612996974607</v>
       </c>
       <c r="D20">
-        <v>0.5788125139801537</v>
+        <v>0.578630627543788</v>
       </c>
       <c r="E20">
-        <v>0.9203373497082055</v>
+        <v>0.9200302766598867</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.45793577464292</v>
+        <v>4.430838871283896</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>8.945838183018424</v>
       </c>
       <c r="I20">
-        <v>0.334697103246711</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>1.129756816281301</v>
+        <v>0.3345829539776517</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.128935665879467</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.714981418114348</v>
+        <v>4.711301804483242</v>
       </c>
       <c r="C21">
-        <v>1.192552075560087</v>
+        <v>1.191041418867144</v>
       </c>
       <c r="D21">
-        <v>0.6731818639844676</v>
+        <v>0.6729115933054288</v>
       </c>
       <c r="E21">
-        <v>1.076596092594201</v>
+        <v>1.076137074209342</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>15.4909663871382</v>
+        <v>5.109055810203415</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>10.28611449674457</v>
       </c>
       <c r="I21">
-        <v>0.3924062182936225</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1.328277721613858</v>
+        <v>0.3922350289624816</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.327087799645554</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.204842924623165</v>
+        <v>5.200185372249678</v>
       </c>
       <c r="C22">
-        <v>1.325142619045494</v>
+        <v>1.323264260911174</v>
       </c>
       <c r="D22">
-        <v>0.7393472346171279</v>
+        <v>0.7390003532463254</v>
       </c>
       <c r="E22">
-        <v>1.186837199592262</v>
+        <v>1.186245113956574</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>16.90970195523693</v>
+        <v>5.582180671678884</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>11.22128027177774</v>
       </c>
       <c r="I22">
-        <v>0.4332393017079923</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>1.468965593644725</v>
+        <v>0.4330179199205944</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.467467371138795</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.939450111668293</v>
+        <v>4.935339198433269</v>
       </c>
       <c r="C23">
-        <v>1.253135684265999</v>
+        <v>1.251462408963192</v>
       </c>
       <c r="D23">
-        <v>0.7035509990560058</v>
+        <v>0.7032471945916257</v>
       </c>
       <c r="E23">
-        <v>1.127122325253623</v>
+        <v>1.126605206571043</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>16.1428177033917</v>
+        <v>5.326454485666318</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>10.7158018365505</v>
       </c>
       <c r="I23">
-        <v>0.4111083504996458</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>1.392697227583952</v>
+        <v>0.4109152711532147</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.391371226532172</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.010660136013712</v>
+        <v>4.008161967959097</v>
       </c>
       <c r="C24">
-        <v>1.004322718783158</v>
+        <v>1.003262437868756</v>
       </c>
       <c r="D24">
-        <v>0.577331859310533</v>
+        <v>0.5771511842877715</v>
       </c>
       <c r="E24">
-        <v>0.9178942304811386</v>
+        <v>0.9175892271559007</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.42594468279211</v>
+        <v>4.420164490676513</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.924746669715631</v>
       </c>
       <c r="I24">
-        <v>0.3337963115601852</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>1.126661871675836</v>
+        <v>0.3336829369858805</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.125845893975224</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.120086821398786</v>
+        <v>3.11874226005915</v>
       </c>
       <c r="C25">
-        <v>0.7702365883401114</v>
+        <v>0.7696277206665627</v>
       </c>
       <c r="D25">
-        <v>0.454879149429587</v>
+        <v>0.4547822945802693</v>
       </c>
       <c r="E25">
-        <v>0.7166806340205767</v>
+        <v>0.7165178948756932</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>10.76946638092272</v>
+        <v>3.533542348723842</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.173268548736644</v>
       </c>
       <c r="I25">
-        <v>0.2597543669284192</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.8728149447295124</v>
+        <v>0.2596940702644801</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.8723668855510454</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_2/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,40 +409,46 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.52354697013601</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.6155886200737655</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3720732282040728</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.5814536882062669</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.92958899405437</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>5.980763148386615</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2101428328970059</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7033813799582589</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,40 +456,46 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.145183550112733</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.5185686390043713</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.319124438602941</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.4952839808733387</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.540520872727541</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>5.2128901936467</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1785833983341298</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5962099297017645</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,40 +503,46 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.922140631659659</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.4616828910938864</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2877652423116643</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.4443390717228013</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.309019683917541</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>4.756157743681484</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1599418330339653</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5331192284707527</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -532,40 +550,46 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.833200391239558</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.4390590433712589</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.275228357725112</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4239877047710223</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.216214327399967</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>4.573100843690582</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1524979926425054</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5079781638658716</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -573,40 +597,46 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.818539743593874</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.4353329496276501</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2731599940196503</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4206308472074127</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.200888053798508</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>4.542872459759622</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.151270321157682</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5038348777524746</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -614,40 +644,46 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.920933712303878</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.4613756626354473</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2875952422243131</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4440630523365314</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.307762265684232</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>4.753677345609475</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1598408634925761</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.532778001145914</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -655,40 +691,46 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.390914324812854</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.5815019207583134</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3535466534752487</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.551279539023156</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.793693842287126</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>5.712522621861723</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.19908723604226</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6657915997376378</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -696,40 +738,46 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.407129005378067</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.8449182535392765</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4946155217838566</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.7817960857679793</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.822992459803629</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>7.744968116722674</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.283684008874765</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9544267250394824</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -737,40 +785,46 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.248977544132117</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1.06726155682847</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.6100430334429348</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.9719209218139753</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.657246421232287</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>9.393219776143553</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3537257235806806</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.194682080556319</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -778,40 +832,46 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.664500989852911</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1.178456038240256</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.6665639211918801</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1.065591949805523</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>5.063515884872345</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>10.19610898174039</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3883345089317771</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.31366920347341</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -819,40 +879,46 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.827923278698506</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1.222457171413964</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.688713130764512</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1.102410305817045</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5.222345530704217</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>10.51002726274208</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4019571553995362</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.360540248439051</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -860,40 +926,46 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.792430207453094</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>1.212887696238226</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.6839064419902741</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1.094414756202539</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5.187895049942426</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>10.44193633141134</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3989978869617872</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.350356907497485</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -901,40 +973,46 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.677814554064071</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>1.182034963138591</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0.6683700375675699</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>1.068591845814339</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>5.076475215271444</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>10.2217217757547</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3894440437782194</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.317486078878503</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -942,40 +1020,46 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.608448868233779</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>1.163399322960316</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0.6589566181457656</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1.052961091223736</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>5.008916192923834</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>10.08819952182205</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3836636880109623</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.297602642971427</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -983,40 +1067,46 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.222586551348343</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>1.060232140263423</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.606443292728585</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0.9659684871341625</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.631323741811627</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>9.341994384271345</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.351528792373422</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.187133964628629</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1024,40 +1114,46 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.995073968680174</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.9997933826209362</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.5753606801728495</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0.914635273895172</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.407244404095906</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>8.899217999103314</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3325938714352503</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1.12210728791473</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1065,40 +1161,46 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.867176121563602</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0.9659428813356783</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5578478870529295</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.8857623269174724</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.280794791994055</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>8.649375386052441</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3219523790782617</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1.085586811172192</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1106,40 +1208,46 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.824345030149232</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0.9546268991866214</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.5519767115033289</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0.8760904712056572</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4.238370005427356</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>8.56555463159907</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3183890632554736</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1.073362194824639</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1147,40 +1255,46 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.018977857200014</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>1.00612996974607</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.578630627543788</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0.9200302766598867</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.430838871283896</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>8.945838183018424</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3345829539776517</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1.128935665879467</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1188,40 +1302,46 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.711301804483242</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>1.191041418867144</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.6729115933054288</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>1.076137074209342</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>5.109055810203415</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>10.28611449674457</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3922350289624816</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.327087799645554</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1229,40 +1349,46 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.200185372249678</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>1.323264260911174</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0.7390003532463254</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>1.186245113956574</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.582180671678884</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>11.22128027177774</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4330179199205944</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.467467371138795</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1270,40 +1396,46 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.935339198433269</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>1.251462408963192</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.7032471945916257</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>1.126605206571043</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>5.326454485666318</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>10.7158018365505</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4109152711532147</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.391371226532172</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1311,40 +1443,46 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.008161967959097</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>1.003262437868756</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0.5771511842877715</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0.9175892271559007</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.420164490676513</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>8.924746669715631</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3336829369858805</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1.125845893975224</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1352,45 +1490,57 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.11874226005915</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0.7696277206665627</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4547822945802693</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.7165178948756932</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.533542348723842</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>7.173268548736644</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2596940702644801</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8723668855510454</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_2/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.8545910445524498</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.1150649256887277</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1993508401212125</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.3393298635902724</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.3684574719025449</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.298129908520508</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8727550336503498</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.594573467663551</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.6806416769281372</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.354350125144606</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.7428451209221976</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.1047715540592407</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1730301490194392</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.295319857129698</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.3483056593211629</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.2943535341702557</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7618090901405026</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.5147299386471289</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.7182400301312306</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.303359104856</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.6743590091768397</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.09843912405492006</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.1569999405588192</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.2687765181973631</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.3367344588731811</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.2925357280530676</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6937287825081739</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.4661040243659684</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.7423430012428867</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.274789949583649</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.6464719309990983</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.09585477942720644</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.1504964737488734</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.2580674396400795</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.3322092576614111</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2919158216744648</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6659862250840831</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.4463744593568819</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.7524142995202308</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.263801531588342</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.6418423180174955</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.09542539891070589</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.1494182168913341</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.2562953375681118</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.3314690097903323</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.2918200424785056</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6613793684533533</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.4431031652161295</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.7541014888413349</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.262015402948435</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.6739828400400825</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.09840428712921323</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.156912120265261</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.2686316728833376</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.336672675326092</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.2925268849486855</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6933546460279132</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.4658376150871817</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.7424778261341771</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.274639154128451</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.8160284851012989</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.1115178484123476</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.1902458953890545</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.3240477985621411</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.361335527114278</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.2967207070992401</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8344864096827393</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.5669518845010231</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.6933902940006025</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.336178129531874</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1.096083047032778</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.1371735860260372</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.2568400075315225</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.4371434790740736</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.4166149858833847</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.3091625167077723</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.112042417963323</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.7690906262386008</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.6055183091018135</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.480272094239723</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1.303514826945474</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.1560440064158257</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.3067955414496168</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.5238687266904378</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.4622603612468765</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.3212345239791716</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.317166553512493</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.9209935490309817</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.5465331521550398</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.602896524653744</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1.398426682693724</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.1646473247285911</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.3298115547747926</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.5643378145798081</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.4843123092690291</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.3274485565346055</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.410916798207069</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.9910857065453911</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.5210192146011554</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.6629118304472</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1.43446235042893</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.1679091642948265</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.338574800175536</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.5798291675683487</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.4928653342005305</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.3299132191777403</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.446495717000033</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.017792725450533</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.5115573639086213</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.68629967515713</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1.426696957706525</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.1672064727706157</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.3366852668366249</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.5764850772121974</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.4910139958013531</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.3293773211394608</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.43882945654363</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.01203319658056</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.5135860916249086</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.681232391233209</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1.401389369780219</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.1649155917867233</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.3305315244261209</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.5656088365807719</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.4850118114248119</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.3276490444653035</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.413842251028768</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.9932794761089454</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.5202367193331723</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.664822392840989</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1.3859005418756</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.1635129130126245</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.3267685527451931</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.5589691508347201</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.4813621962965016</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.3266051881255834</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.398547445540373</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.9818144100223378</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.5243367424791163</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.654858550167745</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1.297324482915741</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.1554822439291428</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.3052977280430156</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.5212461452701831</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.4608465736845204</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.3208436016696368</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.311049805982464</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.916434653685549</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.5482279307887614</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.59906397669485</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1.243137510836334</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.1505613996673674</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.2922045650017537</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.4983787918899623</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.448602605978607</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.3174993639067054</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.257495208765704</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.8765952771737986</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.5632291180109954</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.565956259630212</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1.212021381773098</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.1477327768613037</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.2847007479034716</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.4853205416646063</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.4416802940853444</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.3156433540333126</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.226732325620986</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.8537725485451446</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.5719808823158141</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.54730862325431</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1.201494263268415</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.1467753134961924</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.2821645571278992</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.4809148721972463</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.4393566380792322</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.3150263107989559</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.216323033861045</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.8460602888764797</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.5749649905377705</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.541061158982899</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1.248900441852641</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.1510850458529234</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.2935955173354756</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.5008031440875627</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.4498934467017364</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.3178483232237852</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.263191912599382</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.8808265880267285</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.5616193655981565</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.569439377093261</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1.408820124913888</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.1655883617278988</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.332337688778594</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.5687987608201936</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.4867691607643536</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.3281535901599852</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.421179366391158</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.9987832446045033</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.5182777643335816</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.669624019671232</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1.513896366635748</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.1750907758780187</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.3579382189827243</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.6142194902781597</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.5120584179102394</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.3355427995477527</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.524894057288634</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.076845983156396</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.4911208708107235</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.738982559945185</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1.457758579015803</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.1700165670957716</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.3442470908357365</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.5898806156181706</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.4984462512530001</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.3315365093639002</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.469492255562955</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.035085764544824</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.5055044968961493</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.701590982883687</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1.246294907639168</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.1508483041438353</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.292966594653663</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.4997068203283348</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.449309494758964</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.3176903517299792</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.260616351764185</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.8789133603163748</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.562346738652943</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.567863459979634</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1.020084556670128</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.1302337585863427</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.2386652065613788</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.405981899362537</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.4008390194472611</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.3053094108622076</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.036799667088133</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.7138910218578829</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.6283462579759647</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.438537267915734</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_2/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8545910445524498</v>
+        <v>0.2905003108896267</v>
       </c>
       <c r="C2">
-        <v>0.1150649256887277</v>
+        <v>0.05300363562760424</v>
       </c>
       <c r="D2">
-        <v>0.1993508401212125</v>
+        <v>0.07884844032159322</v>
       </c>
       <c r="E2">
-        <v>0.3393298635902724</v>
+        <v>0.1643386443564268</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3684574719025449</v>
+        <v>0.5155318926930903</v>
       </c>
       <c r="H2">
-        <v>0.298129908520508</v>
+        <v>0.6533059411956543</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8727550336503498</v>
+        <v>0.267125269125728</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.594573467663551</v>
+        <v>0.2202148238570132</v>
       </c>
       <c r="N2">
-        <v>0.6806416769281372</v>
+        <v>1.420034607490614</v>
       </c>
       <c r="O2">
-        <v>1.354350125144606</v>
+        <v>2.304186272167101</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7428451209221976</v>
+        <v>0.2573022933752043</v>
       </c>
       <c r="C3">
-        <v>0.1047715540592407</v>
+        <v>0.04959231472099646</v>
       </c>
       <c r="D3">
-        <v>0.1730301490194392</v>
+        <v>0.07148506819844158</v>
       </c>
       <c r="E3">
-        <v>0.295319857129698</v>
+        <v>0.1532663542963633</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3483056593211629</v>
+        <v>0.5144014372140475</v>
       </c>
       <c r="H3">
-        <v>0.2943535341702557</v>
+        <v>0.656404492042256</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7618090901405026</v>
+        <v>0.2332290512571404</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5147299386471289</v>
+        <v>0.1979809654605091</v>
       </c>
       <c r="N3">
-        <v>0.7182400301312306</v>
+        <v>1.435918653978847</v>
       </c>
       <c r="O3">
-        <v>1.303359104856</v>
+        <v>2.308011874341858</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6743590091768397</v>
+        <v>0.2369331370846055</v>
       </c>
       <c r="C4">
-        <v>0.09843912405492006</v>
+        <v>0.04748029964767397</v>
       </c>
       <c r="D4">
-        <v>0.1569999405588192</v>
+        <v>0.06699663149181845</v>
       </c>
       <c r="E4">
-        <v>0.2687765181973631</v>
+        <v>0.1465790906907145</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3367344588731811</v>
+        <v>0.5140529434752921</v>
       </c>
       <c r="H4">
-        <v>0.2925357280530676</v>
+        <v>0.6585907717221886</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6937287825081739</v>
+        <v>0.2123733508069705</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4661040243659684</v>
+        <v>0.1844010535039899</v>
       </c>
       <c r="N4">
-        <v>0.7423430012428867</v>
+        <v>1.446168424742691</v>
       </c>
       <c r="O4">
-        <v>1.274789949583649</v>
+        <v>2.311678139933875</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6464719309990983</v>
+        <v>0.2286366112731457</v>
       </c>
       <c r="C5">
-        <v>0.09585477942720644</v>
+        <v>0.04661528658142799</v>
       </c>
       <c r="D5">
-        <v>0.1504964737488734</v>
+        <v>0.06517581070593792</v>
       </c>
       <c r="E5">
-        <v>0.2580674396400795</v>
+        <v>0.1438817384347502</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3322092576614111</v>
+        <v>0.5139977602228711</v>
       </c>
       <c r="H5">
-        <v>0.2919158216744648</v>
+        <v>0.6595530973469721</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6659862250840831</v>
+        <v>0.203863992538345</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4463744593568819</v>
+        <v>0.1788851572464907</v>
       </c>
       <c r="N5">
-        <v>0.7524142995202308</v>
+        <v>1.450470197681301</v>
       </c>
       <c r="O5">
-        <v>1.263801531588342</v>
+        <v>2.313503355255293</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6418423180174955</v>
+        <v>0.2272592374056046</v>
       </c>
       <c r="C6">
-        <v>0.09542539891070589</v>
+        <v>0.04647139023148128</v>
       </c>
       <c r="D6">
-        <v>0.1494182168913341</v>
+        <v>0.06487396418221181</v>
       </c>
       <c r="E6">
-        <v>0.2562953375681118</v>
+        <v>0.1434355162949359</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3314690097903323</v>
+        <v>0.5139938392382533</v>
       </c>
       <c r="H6">
-        <v>0.2918200424785056</v>
+        <v>0.6597172044617636</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6613793684533533</v>
+        <v>0.202450398045869</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4431031652161295</v>
+        <v>0.1779703352231721</v>
       </c>
       <c r="N6">
-        <v>0.7541014888413349</v>
+        <v>1.451192046754282</v>
       </c>
       <c r="O6">
-        <v>1.262015402948435</v>
+        <v>2.313826431428126</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6739828400400825</v>
+        <v>0.2368212302120298</v>
       </c>
       <c r="C7">
-        <v>0.09840428712921323</v>
+        <v>0.04746865134077893</v>
       </c>
       <c r="D7">
-        <v>0.156912120265261</v>
+        <v>0.06697204180719041</v>
       </c>
       <c r="E7">
-        <v>0.2686316728833376</v>
+        <v>0.1465426011012738</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.336672675326092</v>
+        <v>0.5140518477813814</v>
       </c>
       <c r="H7">
-        <v>0.2925268849486855</v>
+        <v>0.6586034608307614</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6933546460279132</v>
+        <v>0.2122586325817082</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4658376150871817</v>
+        <v>0.1843265912263021</v>
       </c>
       <c r="N7">
-        <v>0.7424778261341771</v>
+        <v>1.446225934264705</v>
       </c>
       <c r="O7">
-        <v>1.274639154128451</v>
+        <v>2.311701414578863</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8160284851012989</v>
+        <v>0.2790508478228162</v>
       </c>
       <c r="C8">
-        <v>0.1115178484123476</v>
+        <v>0.05183105593988557</v>
       </c>
       <c r="D8">
-        <v>0.1902458953890545</v>
+        <v>0.07630277781188965</v>
       </c>
       <c r="E8">
-        <v>0.3240477985621411</v>
+        <v>0.16049772695348</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.361335527114278</v>
+        <v>0.5150703326704473</v>
       </c>
       <c r="H8">
-        <v>0.2967207070992401</v>
+        <v>0.6543154546481418</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8344864096827393</v>
+        <v>0.2554470631251604</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5669518845010231</v>
+        <v>0.2125336763846448</v>
       </c>
       <c r="N8">
-        <v>0.6933902940006025</v>
+        <v>1.425408270991313</v>
       </c>
       <c r="O8">
-        <v>1.336178129531874</v>
+        <v>2.305231879449622</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.096083047032778</v>
+        <v>0.3619645948435561</v>
       </c>
       <c r="C9">
-        <v>0.1371735860260372</v>
+        <v>0.06024595412694111</v>
       </c>
       <c r="D9">
-        <v>0.2568400075315225</v>
+        <v>0.09485944867509488</v>
       </c>
       <c r="E9">
-        <v>0.4371434790740736</v>
+        <v>0.1887559033010717</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4166149858833847</v>
+        <v>0.5198141786773363</v>
       </c>
       <c r="H9">
-        <v>0.3091625167077723</v>
+        <v>0.6481564743262425</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.112042417963323</v>
+        <v>0.3397827085833285</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7690906262386008</v>
+        <v>0.2684208594187396</v>
       </c>
       <c r="N9">
-        <v>0.6055183091018135</v>
+        <v>1.388528823392649</v>
       </c>
       <c r="O9">
-        <v>1.480272094239723</v>
+        <v>2.303003503440408</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.303514826945474</v>
+        <v>0.4229304981409143</v>
       </c>
       <c r="C10">
-        <v>0.1560440064158257</v>
+        <v>0.06634197695834132</v>
       </c>
       <c r="D10">
-        <v>0.3067955414496168</v>
+        <v>0.1086519344883499</v>
       </c>
       <c r="E10">
-        <v>0.5238687266904378</v>
+        <v>0.2100773150175641</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4622603612468765</v>
+        <v>0.5249812073324733</v>
       </c>
       <c r="H10">
-        <v>0.3212345239791716</v>
+        <v>0.6450011954734265</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.317166553512493</v>
+        <v>0.4015146870138153</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9209935490309817</v>
+        <v>0.309839962488482</v>
       </c>
       <c r="N10">
-        <v>0.5465331521550398</v>
+        <v>1.363838576692491</v>
       </c>
       <c r="O10">
-        <v>1.602896524653744</v>
+        <v>2.30775417382344</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.398426682693724</v>
+        <v>0.450673787172974</v>
       </c>
       <c r="C11">
-        <v>0.1646473247285911</v>
+        <v>0.06909623327130987</v>
       </c>
       <c r="D11">
-        <v>0.3298115547747926</v>
+        <v>0.1149612697815456</v>
       </c>
       <c r="E11">
-        <v>0.5643378145798081</v>
+        <v>0.219902211449245</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4843123092690291</v>
+        <v>0.527698648200527</v>
       </c>
       <c r="H11">
-        <v>0.3274485565346055</v>
+        <v>0.6438628615397306</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.410916798207069</v>
+        <v>0.4295461604806405</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9910857065453911</v>
+        <v>0.3287627404166003</v>
       </c>
       <c r="N11">
-        <v>0.5210192146011554</v>
+        <v>1.353128753974067</v>
       </c>
       <c r="O11">
-        <v>1.6629118304472</v>
+        <v>2.311305327957939</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.43446235042893</v>
+        <v>0.4611804903202597</v>
       </c>
       <c r="C12">
-        <v>0.1679091642948265</v>
+        <v>0.07013645558623693</v>
       </c>
       <c r="D12">
-        <v>0.338574800175536</v>
+        <v>0.117355480715517</v>
       </c>
       <c r="E12">
-        <v>0.5798291675683487</v>
+        <v>0.223640958706163</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4928653342005305</v>
+        <v>0.528780544605695</v>
       </c>
       <c r="H12">
-        <v>0.3299132191777403</v>
+        <v>0.6434744818151472</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.446495717000033</v>
+        <v>0.4401533347431155</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.017792725450533</v>
+        <v>0.3359400385458073</v>
       </c>
       <c r="N12">
-        <v>0.5115573639086213</v>
+        <v>1.349148322748579</v>
       </c>
       <c r="O12">
-        <v>1.68629967515713</v>
+        <v>2.312850110690619</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.426696957706525</v>
+        <v>0.4589176501106351</v>
       </c>
       <c r="C13">
-        <v>0.1672064727706157</v>
+        <v>0.06991254830839466</v>
       </c>
       <c r="D13">
-        <v>0.3366852668366249</v>
+        <v>0.1168396227016615</v>
       </c>
       <c r="E13">
-        <v>0.5764850772121974</v>
+        <v>0.2228349367518803</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4910139958013531</v>
+        <v>0.5285451863504989</v>
       </c>
       <c r="H13">
-        <v>0.3293773211394608</v>
+        <v>0.643556228462387</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.43882945654363</v>
+        <v>0.437869241127089</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.01203319658056</v>
+        <v>0.3343937606889185</v>
       </c>
       <c r="N13">
-        <v>0.5135860916249086</v>
+        <v>1.350002236090035</v>
       </c>
       <c r="O13">
-        <v>1.681232391233209</v>
+        <v>2.312508514973189</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.401389369780219</v>
+        <v>0.4515381641160729</v>
       </c>
       <c r="C14">
-        <v>0.1649155917867233</v>
+        <v>0.06918186844534091</v>
       </c>
       <c r="D14">
-        <v>0.3305315244261209</v>
+        <v>0.1151581429253667</v>
       </c>
       <c r="E14">
-        <v>0.5656088365807719</v>
+        <v>0.2202094330911208</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4850118114248119</v>
+        <v>0.5277865965182968</v>
       </c>
       <c r="H14">
-        <v>0.3276490444653035</v>
+        <v>0.6438300540430504</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.413842251028768</v>
+        <v>0.430418976683228</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9932794761089454</v>
+        <v>0.3293529875044641</v>
       </c>
       <c r="N14">
-        <v>0.5202367193331723</v>
+        <v>1.352799774886896</v>
       </c>
       <c r="O14">
-        <v>1.664822392840989</v>
+        <v>2.311428408251487</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.3859005418756</v>
+        <v>0.4470181223013583</v>
       </c>
       <c r="C15">
-        <v>0.1635129130126245</v>
+        <v>0.06873394588878057</v>
       </c>
       <c r="D15">
-        <v>0.3267685527451931</v>
+        <v>0.1141288383072379</v>
       </c>
       <c r="E15">
-        <v>0.5589691508347201</v>
+        <v>0.2186036217912388</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4813621962965016</v>
+        <v>0.5273288251783157</v>
       </c>
       <c r="H15">
-        <v>0.3266051881255834</v>
+        <v>0.6440033378247279</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.398547445540373</v>
+        <v>0.4258544539057141</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9818144100223378</v>
+        <v>0.3262668859678683</v>
       </c>
       <c r="N15">
-        <v>0.5243367424791163</v>
+        <v>1.354523137395</v>
       </c>
       <c r="O15">
-        <v>1.654858550167745</v>
+        <v>2.310792866959304</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.297324482915741</v>
+        <v>0.4211175628793455</v>
       </c>
       <c r="C16">
-        <v>0.1554822439291428</v>
+        <v>0.06616159670362265</v>
       </c>
       <c r="D16">
-        <v>0.3052977280430156</v>
+        <v>0.1082403068050724</v>
       </c>
       <c r="E16">
-        <v>0.5212461452701831</v>
+        <v>0.2094377809941435</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4608465736845204</v>
+        <v>0.5248110080374317</v>
       </c>
       <c r="H16">
-        <v>0.3208436016696368</v>
+        <v>0.6450815626191257</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.311049805982464</v>
+        <v>0.3996817058823865</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.916434653685549</v>
+        <v>0.3086049449924388</v>
       </c>
       <c r="N16">
-        <v>0.5482279307887614</v>
+        <v>1.364548999000234</v>
       </c>
       <c r="O16">
-        <v>1.59906397669485</v>
+        <v>2.30755008177033</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.243137510836334</v>
+        <v>0.4052305401632736</v>
       </c>
       <c r="C17">
-        <v>0.1505613996673674</v>
+        <v>0.06457868363411023</v>
       </c>
       <c r="D17">
-        <v>0.2922045650017537</v>
+        <v>0.1046368363463444</v>
       </c>
       <c r="E17">
-        <v>0.4983787918899623</v>
+        <v>0.203847166195942</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.448602605978607</v>
+        <v>0.5233604577249622</v>
       </c>
       <c r="H17">
-        <v>0.3174993639067054</v>
+        <v>0.6458190719142465</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.257495208765704</v>
+        <v>0.3836122681052245</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8765952771737986</v>
+        <v>0.2977906693640122</v>
       </c>
       <c r="N17">
-        <v>0.5632291180109954</v>
+        <v>1.370833279267189</v>
       </c>
       <c r="O17">
-        <v>1.565956259630212</v>
+        <v>2.3059168704211</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.212021381773098</v>
+        <v>0.3960936753105955</v>
       </c>
       <c r="C18">
-        <v>0.1477327768613037</v>
+        <v>0.06366646177032464</v>
       </c>
       <c r="D18">
-        <v>0.2847007479034716</v>
+        <v>0.1025675182891206</v>
       </c>
       <c r="E18">
-        <v>0.4853205416646063</v>
+        <v>0.2006434100473342</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4416802940853444</v>
+        <v>0.5225606713826494</v>
       </c>
       <c r="H18">
-        <v>0.3156433540333126</v>
+        <v>0.646271226181014</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.226732325620986</v>
+        <v>0.3743648057063353</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8537725485451446</v>
+        <v>0.2915782099884083</v>
       </c>
       <c r="N18">
-        <v>0.5719808823158141</v>
+        <v>1.374496948177215</v>
       </c>
       <c r="O18">
-        <v>1.54730862325431</v>
+        <v>2.305108319619791</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.201494263268415</v>
+        <v>0.393000263608684</v>
       </c>
       <c r="C19">
-        <v>0.1467753134961924</v>
+        <v>0.06335729607931739</v>
       </c>
       <c r="D19">
-        <v>0.2821645571278992</v>
+        <v>0.1018674512105662</v>
       </c>
       <c r="E19">
-        <v>0.4809148721972463</v>
+        <v>0.1995606968606864</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4393566380792322</v>
+        <v>0.5222958054130089</v>
       </c>
       <c r="H19">
-        <v>0.3150263107989559</v>
+        <v>0.646429120600061</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.216323033861045</v>
+        <v>0.3712329720829359</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8460602888764797</v>
+        <v>0.2894760876668414</v>
       </c>
       <c r="N19">
-        <v>0.5749649905377705</v>
+        <v>1.375745836476372</v>
       </c>
       <c r="O19">
-        <v>1.541061158982899</v>
+        <v>2.304857023665846</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.248900441852641</v>
+        <v>0.4069216478735029</v>
       </c>
       <c r="C20">
-        <v>0.1510850458529234</v>
+        <v>0.06474737115637197</v>
       </c>
       <c r="D20">
-        <v>0.2935955173354756</v>
+        <v>0.1050200903812453</v>
       </c>
       <c r="E20">
-        <v>0.5008031440875627</v>
+        <v>0.20444107216003</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4498934467017364</v>
+        <v>0.523511296669497</v>
       </c>
       <c r="H20">
-        <v>0.3178483232237852</v>
+        <v>0.6457376694034593</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.263191912599382</v>
+        <v>0.3853233816810189</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8808265880267285</v>
+        <v>0.298941078192513</v>
       </c>
       <c r="N20">
-        <v>0.5616193655981565</v>
+        <v>1.370159222759987</v>
       </c>
       <c r="O20">
-        <v>1.569439377093261</v>
+        <v>2.306077187135344</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.408820124913888</v>
+        <v>0.4537056766710634</v>
       </c>
       <c r="C21">
-        <v>0.1655883617278988</v>
+        <v>0.06939656194229826</v>
       </c>
       <c r="D21">
-        <v>0.332337688778594</v>
+        <v>0.1156518988467496</v>
       </c>
       <c r="E21">
-        <v>0.5687987608201936</v>
+        <v>0.2209801096670745</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4867691607643536</v>
+        <v>0.528007977359735</v>
       </c>
       <c r="H21">
-        <v>0.3281535901599852</v>
+        <v>0.6437484666615205</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.421179366391158</v>
+        <v>0.4326075134495397</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9987832446045033</v>
+        <v>0.3308332685124142</v>
       </c>
       <c r="N21">
-        <v>0.5182777643335816</v>
+        <v>1.35197602968562</v>
       </c>
       <c r="O21">
-        <v>1.669624019671232</v>
+        <v>2.311740231617847</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.513896366635748</v>
+        <v>0.4842869035138335</v>
       </c>
       <c r="C22">
-        <v>0.1750907758780187</v>
+        <v>0.07241899983205258</v>
       </c>
       <c r="D22">
-        <v>0.3579382189827243</v>
+        <v>0.1226295402230306</v>
       </c>
       <c r="E22">
-        <v>0.6142194902781597</v>
+        <v>0.23189592364173</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5120584179102394</v>
+        <v>0.531254973787199</v>
       </c>
       <c r="H22">
-        <v>0.3355427995477527</v>
+        <v>0.6426971818460743</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.524894057288634</v>
+        <v>0.4634651272395161</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.076845983156396</v>
+        <v>0.3517445803211032</v>
       </c>
       <c r="N22">
-        <v>0.4911208708107235</v>
+        <v>1.340530318902338</v>
       </c>
       <c r="O22">
-        <v>1.738982559945185</v>
+        <v>2.31660740073454</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.457758579015803</v>
+        <v>0.4679648065274193</v>
       </c>
       <c r="C23">
-        <v>0.1700165670957716</v>
+        <v>0.07080735323467025</v>
       </c>
       <c r="D23">
-        <v>0.3442470908357365</v>
+        <v>0.1189027887005238</v>
       </c>
       <c r="E23">
-        <v>0.5898806156181706</v>
+        <v>0.2260601287608992</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4984462512530001</v>
+        <v>0.5294937628967062</v>
       </c>
       <c r="H23">
-        <v>0.3315365093639002</v>
+        <v>0.6432355187286021</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.469492255562955</v>
+        <v>0.447000129687126</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.035085764544824</v>
+        <v>0.3405776043284092</v>
       </c>
       <c r="N23">
-        <v>0.5055044968961493</v>
+        <v>1.346598994745668</v>
       </c>
       <c r="O23">
-        <v>1.701590982883687</v>
+        <v>2.313902958608281</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.246294907639168</v>
+        <v>0.4061571080229669</v>
       </c>
       <c r="C24">
-        <v>0.1508483041438353</v>
+        <v>0.0646711143278651</v>
       </c>
       <c r="D24">
-        <v>0.292966594653663</v>
+        <v>0.1048468138634462</v>
       </c>
       <c r="E24">
-        <v>0.4997068203283348</v>
+        <v>0.2041725350122618</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.449309494758964</v>
+        <v>0.5234429960006395</v>
       </c>
       <c r="H24">
-        <v>0.3176903517299792</v>
+        <v>0.6457743837885488</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.260616351764185</v>
+        <v>0.3845498150128606</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8789133603163748</v>
+        <v>0.2984209633763015</v>
       </c>
       <c r="N24">
-        <v>0.562346738652943</v>
+        <v>1.370463805619622</v>
       </c>
       <c r="O24">
-        <v>1.567863459979634</v>
+        <v>2.306004301755763</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.020084556670128</v>
+        <v>0.3395246709956723</v>
       </c>
       <c r="C25">
-        <v>0.1302337585863427</v>
+        <v>0.0579845881327401</v>
       </c>
       <c r="D25">
-        <v>0.2386652065613788</v>
+        <v>0.08981153735874159</v>
       </c>
       <c r="E25">
-        <v>0.405981899362537</v>
+        <v>0.1810141234389562</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4008390194472611</v>
+        <v>0.5182360414621741</v>
       </c>
       <c r="H25">
-        <v>0.3053094108622076</v>
+        <v>0.6495819748121079</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.036799667088133</v>
+        <v>0.3170071071906762</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7138910218578829</v>
+        <v>0.2532395618572707</v>
       </c>
       <c r="N25">
-        <v>0.6283462579759647</v>
+        <v>1.398083398149121</v>
       </c>
       <c r="O25">
-        <v>1.438537267915734</v>
+        <v>2.302485441086418</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_2/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2905003108896267</v>
+        <v>0.8545910445524214</v>
       </c>
       <c r="C2">
-        <v>0.05300363562760424</v>
+        <v>0.1150649256887988</v>
       </c>
       <c r="D2">
-        <v>0.07884844032159322</v>
+        <v>0.1993508401210988</v>
       </c>
       <c r="E2">
-        <v>0.1643386443564268</v>
+        <v>0.3393298635902511</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5155318926930903</v>
+        <v>0.3684574719025875</v>
       </c>
       <c r="H2">
-        <v>0.6533059411956543</v>
+        <v>0.298129908520508</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.267125269125728</v>
+        <v>0.8727550336503214</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2202148238570132</v>
+        <v>0.5945734676635368</v>
       </c>
       <c r="N2">
-        <v>1.420034607490614</v>
+        <v>0.6806416769281922</v>
       </c>
       <c r="O2">
-        <v>2.304186272167101</v>
+        <v>1.354350125144578</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2573022933752043</v>
+        <v>0.7428451209221123</v>
       </c>
       <c r="C3">
-        <v>0.04959231472099646</v>
+        <v>0.1047715540590133</v>
       </c>
       <c r="D3">
-        <v>0.07148506819844158</v>
+        <v>0.1730301490193256</v>
       </c>
       <c r="E3">
-        <v>0.1532663542963633</v>
+        <v>0.2953198571296838</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.5144014372140475</v>
+        <v>0.3483056593211913</v>
       </c>
       <c r="H3">
-        <v>0.656404492042256</v>
+        <v>0.2943535341702699</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2332290512571404</v>
+        <v>0.7618090901405168</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1979809654605091</v>
+        <v>0.5147299386471502</v>
       </c>
       <c r="N3">
-        <v>1.435918653978847</v>
+        <v>0.7182400301312306</v>
       </c>
       <c r="O3">
-        <v>2.308011874341858</v>
+        <v>1.303359104855986</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2369331370846055</v>
+        <v>0.6743590091769818</v>
       </c>
       <c r="C4">
-        <v>0.04748029964767397</v>
+        <v>0.09843912405514743</v>
       </c>
       <c r="D4">
-        <v>0.06699663149181845</v>
+        <v>0.1569999405588334</v>
       </c>
       <c r="E4">
-        <v>0.1465790906907145</v>
+        <v>0.2687765181973631</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.5140529434752921</v>
+        <v>0.3367344588731811</v>
       </c>
       <c r="H4">
-        <v>0.6585907717221886</v>
+        <v>0.2925357280531813</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2123733508069705</v>
+        <v>0.6937287825081739</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1844010535039899</v>
+        <v>0.4661040243659471</v>
       </c>
       <c r="N4">
-        <v>1.446168424742691</v>
+        <v>0.7423430012428867</v>
       </c>
       <c r="O4">
-        <v>2.311678139933875</v>
+        <v>1.274789949583635</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2286366112731457</v>
+        <v>0.6464719309990699</v>
       </c>
       <c r="C5">
-        <v>0.04661528658142799</v>
+        <v>0.09585477942775356</v>
       </c>
       <c r="D5">
-        <v>0.06517581070593792</v>
+        <v>0.1504964737489018</v>
       </c>
       <c r="E5">
-        <v>0.1438817384347502</v>
+        <v>0.2580674396400937</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.5139977602228711</v>
+        <v>0.3322092576614182</v>
       </c>
       <c r="H5">
-        <v>0.6595530973469721</v>
+        <v>0.2919158216744577</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.203863992538345</v>
+        <v>0.6659862250841115</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1788851572464907</v>
+        <v>0.4463744593568677</v>
       </c>
       <c r="N5">
-        <v>1.450470197681301</v>
+        <v>0.7524142995201641</v>
       </c>
       <c r="O5">
-        <v>2.313503355255293</v>
+        <v>1.263801531588314</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2272592374056046</v>
+        <v>0.6418423180174955</v>
       </c>
       <c r="C6">
-        <v>0.04647139023148128</v>
+        <v>0.09542539891078405</v>
       </c>
       <c r="D6">
-        <v>0.06487396418221181</v>
+        <v>0.1494182168913056</v>
       </c>
       <c r="E6">
-        <v>0.1434355162949359</v>
+        <v>0.2562953375680976</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.5139938392382533</v>
+        <v>0.3314690097902613</v>
       </c>
       <c r="H6">
-        <v>0.6597172044617636</v>
+        <v>0.291820042478399</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.202450398045869</v>
+        <v>0.6613793684533533</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1779703352231721</v>
+        <v>0.4431031652161295</v>
       </c>
       <c r="N6">
-        <v>1.451192046754282</v>
+        <v>0.7541014888413358</v>
       </c>
       <c r="O6">
-        <v>2.313826431428126</v>
+        <v>1.262015402948435</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2368212302120298</v>
+        <v>0.6739828400400825</v>
       </c>
       <c r="C7">
-        <v>0.04746865134077893</v>
+        <v>0.09840428712920612</v>
       </c>
       <c r="D7">
-        <v>0.06697204180719041</v>
+        <v>0.1569121202652184</v>
       </c>
       <c r="E7">
-        <v>0.1465426011012738</v>
+        <v>0.2686316728833376</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.5140518477813814</v>
+        <v>0.336672675326092</v>
       </c>
       <c r="H7">
-        <v>0.6586034608307614</v>
+        <v>0.2925268849487992</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2122586325817082</v>
+        <v>0.69335464602797</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1843265912263021</v>
+        <v>0.4658376150871888</v>
       </c>
       <c r="N7">
-        <v>1.446225934264705</v>
+        <v>0.7424778261341736</v>
       </c>
       <c r="O7">
-        <v>2.311701414578863</v>
+        <v>1.274639154128479</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2790508478228162</v>
+        <v>0.816028485101441</v>
       </c>
       <c r="C8">
-        <v>0.05183105593988557</v>
+        <v>0.1115178484124186</v>
       </c>
       <c r="D8">
-        <v>0.07630277781188965</v>
+        <v>0.1902458953889692</v>
       </c>
       <c r="E8">
-        <v>0.16049772695348</v>
+        <v>0.3240477985621411</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.5150703326704473</v>
+        <v>0.3613355271142495</v>
       </c>
       <c r="H8">
-        <v>0.6543154546481418</v>
+        <v>0.2967207070991265</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2554470631251604</v>
+        <v>0.8344864096827393</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2125336763846448</v>
+        <v>0.5669518845010231</v>
       </c>
       <c r="N8">
-        <v>1.425408270991313</v>
+        <v>0.6933902940005998</v>
       </c>
       <c r="O8">
-        <v>2.305231879449622</v>
+        <v>1.336178129531845</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3619645948435561</v>
+        <v>1.096083047032749</v>
       </c>
       <c r="C9">
-        <v>0.06024595412694111</v>
+        <v>0.1371735860263641</v>
       </c>
       <c r="D9">
-        <v>0.09485944867509488</v>
+        <v>0.2568400075316646</v>
       </c>
       <c r="E9">
-        <v>0.1887559033010717</v>
+        <v>0.4371434790740594</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5198141786773363</v>
+        <v>0.4166149858833705</v>
       </c>
       <c r="H9">
-        <v>0.6481564743262425</v>
+        <v>0.3091625167077865</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3397827085833285</v>
+        <v>1.112042417963323</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2684208594187396</v>
+        <v>0.7690906262386221</v>
       </c>
       <c r="N9">
-        <v>1.388528823392649</v>
+        <v>0.6055183091018241</v>
       </c>
       <c r="O9">
-        <v>2.303003503440408</v>
+        <v>1.480272094239723</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4229304981409143</v>
+        <v>1.303514826945616</v>
       </c>
       <c r="C10">
-        <v>0.06634197695834132</v>
+        <v>0.1560440064163657</v>
       </c>
       <c r="D10">
-        <v>0.1086519344883499</v>
+        <v>0.3067955414493326</v>
       </c>
       <c r="E10">
-        <v>0.2100773150175641</v>
+        <v>0.523868726690452</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5249812073324733</v>
+        <v>0.4622603612469049</v>
       </c>
       <c r="H10">
-        <v>0.6450011954734265</v>
+        <v>0.3212345239791716</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4015146870138153</v>
+        <v>1.317166553512521</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.309839962488482</v>
+        <v>0.9209935490309817</v>
       </c>
       <c r="N10">
-        <v>1.363838576692491</v>
+        <v>0.5465331521549803</v>
       </c>
       <c r="O10">
-        <v>2.30775417382344</v>
+        <v>1.602896524653715</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.450673787172974</v>
+        <v>1.398426682693838</v>
       </c>
       <c r="C11">
-        <v>0.06909623327130987</v>
+        <v>0.1646473247283495</v>
       </c>
       <c r="D11">
-        <v>0.1149612697815456</v>
+        <v>0.3298115547749063</v>
       </c>
       <c r="E11">
-        <v>0.219902211449245</v>
+        <v>0.5643378145798152</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.527698648200527</v>
+        <v>0.4843123092689723</v>
       </c>
       <c r="H11">
-        <v>0.6438628615397306</v>
+        <v>0.3274485565346197</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4295461604806405</v>
+        <v>1.410916798207126</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3287627404166003</v>
+        <v>0.9910857065453911</v>
       </c>
       <c r="N11">
-        <v>1.353128753974067</v>
+        <v>0.5210192146011536</v>
       </c>
       <c r="O11">
-        <v>2.311305327957939</v>
+        <v>1.662911830447143</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4611804903202597</v>
+        <v>1.434462350428902</v>
       </c>
       <c r="C12">
-        <v>0.07013645558623693</v>
+        <v>0.1679091642945991</v>
       </c>
       <c r="D12">
-        <v>0.117355480715517</v>
+        <v>0.3385748001755928</v>
       </c>
       <c r="E12">
-        <v>0.223640958706163</v>
+        <v>0.57982916756837</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.528780544605695</v>
+        <v>0.4928653342005163</v>
       </c>
       <c r="H12">
-        <v>0.6434744818151472</v>
+        <v>0.3299132191777261</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4401533347431155</v>
+        <v>1.446495716999891</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3359400385458073</v>
+        <v>1.017792725450548</v>
       </c>
       <c r="N12">
-        <v>1.349148322748579</v>
+        <v>0.5115573639086186</v>
       </c>
       <c r="O12">
-        <v>2.312850110690619</v>
+        <v>1.686299675157102</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4589176501106351</v>
+        <v>1.426696957706696</v>
       </c>
       <c r="C13">
-        <v>0.06991254830839466</v>
+        <v>0.1672064727705305</v>
       </c>
       <c r="D13">
-        <v>0.1168396227016615</v>
+        <v>0.3366852668367528</v>
       </c>
       <c r="E13">
-        <v>0.2228349367518803</v>
+        <v>0.5764850772122188</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5285451863504989</v>
+        <v>0.4910139958013531</v>
       </c>
       <c r="H13">
-        <v>0.643556228462387</v>
+        <v>0.3293773211394608</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.437869241127089</v>
+        <v>1.438829456543772</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3343937606889185</v>
+        <v>1.012033196580546</v>
       </c>
       <c r="N13">
-        <v>1.350002236090035</v>
+        <v>0.5135860916248447</v>
       </c>
       <c r="O13">
-        <v>2.312508514973189</v>
+        <v>1.681232391233209</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4515381641160729</v>
+        <v>1.401389369780389</v>
       </c>
       <c r="C14">
-        <v>0.06918186844534091</v>
+        <v>0.1649155917865528</v>
       </c>
       <c r="D14">
-        <v>0.1151581429253667</v>
+        <v>0.3305315244263909</v>
       </c>
       <c r="E14">
-        <v>0.2202094330911208</v>
+        <v>0.5656088365807932</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5277865965182968</v>
+        <v>0.4850118114248545</v>
       </c>
       <c r="H14">
-        <v>0.6438300540430504</v>
+        <v>0.3276490444653035</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.430418976683228</v>
+        <v>1.413842251028598</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3293529875044641</v>
+        <v>0.9932794761089525</v>
       </c>
       <c r="N14">
-        <v>1.352799774886896</v>
+        <v>0.5202367193331696</v>
       </c>
       <c r="O14">
-        <v>2.311428408251487</v>
+        <v>1.664822392840932</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4470181223013583</v>
+        <v>1.385900541875714</v>
       </c>
       <c r="C15">
-        <v>0.06873394588878057</v>
+        <v>0.1635129130127666</v>
       </c>
       <c r="D15">
-        <v>0.1141288383072379</v>
+        <v>0.3267685527452926</v>
       </c>
       <c r="E15">
-        <v>0.2186036217912388</v>
+        <v>0.5589691508347485</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5273288251783157</v>
+        <v>0.4813621962964589</v>
       </c>
       <c r="H15">
-        <v>0.6440033378247279</v>
+        <v>0.3266051881255834</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4258544539057141</v>
+        <v>1.398547445540515</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3262668859678683</v>
+        <v>0.9818144100223165</v>
       </c>
       <c r="N15">
-        <v>1.354523137395</v>
+        <v>0.5243367424791101</v>
       </c>
       <c r="O15">
-        <v>2.310792866959304</v>
+        <v>1.654858550167802</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4211175628793455</v>
+        <v>1.297324482915826</v>
       </c>
       <c r="C16">
-        <v>0.06616159670362265</v>
+        <v>0.1554822439294554</v>
       </c>
       <c r="D16">
-        <v>0.1082403068050724</v>
+        <v>0.3052977280430156</v>
       </c>
       <c r="E16">
-        <v>0.2094377809941435</v>
+        <v>0.5212461452701902</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.5248110080374317</v>
+        <v>0.4608465736844778</v>
       </c>
       <c r="H16">
-        <v>0.6450815626191257</v>
+        <v>0.320843601669722</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3996817058823865</v>
+        <v>1.311049805982606</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3086049449924388</v>
+        <v>0.9164346536855348</v>
       </c>
       <c r="N16">
-        <v>1.364548999000234</v>
+        <v>0.5482279307887108</v>
       </c>
       <c r="O16">
-        <v>2.30755008177033</v>
+        <v>1.599063976694879</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4052305401632736</v>
+        <v>1.243137510836334</v>
       </c>
       <c r="C17">
-        <v>0.06457868363411023</v>
+        <v>0.1505613996676374</v>
       </c>
       <c r="D17">
-        <v>0.1046368363463444</v>
+        <v>0.2922045650016543</v>
       </c>
       <c r="E17">
-        <v>0.203847166195942</v>
+        <v>0.4983787918899765</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.5233604577249622</v>
+        <v>0.4486026059785786</v>
       </c>
       <c r="H17">
-        <v>0.6458190719142465</v>
+        <v>0.3174993639067054</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3836122681052245</v>
+        <v>1.257495208765619</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2977906693640122</v>
+        <v>0.8765952771737986</v>
       </c>
       <c r="N17">
-        <v>1.370833279267189</v>
+        <v>0.5632291180109839</v>
       </c>
       <c r="O17">
-        <v>2.3059168704211</v>
+        <v>1.565956259630127</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3960936753105955</v>
+        <v>1.212021381772985</v>
       </c>
       <c r="C18">
-        <v>0.06366646177032464</v>
+        <v>0.1477327768613179</v>
       </c>
       <c r="D18">
-        <v>0.1025675182891206</v>
+        <v>0.2847007479034005</v>
       </c>
       <c r="E18">
-        <v>0.2006434100473342</v>
+        <v>0.4853205416646134</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.5225606713826494</v>
+        <v>0.4416802940853159</v>
       </c>
       <c r="H18">
-        <v>0.646271226181014</v>
+        <v>0.3156433540333126</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3743648057063353</v>
+        <v>1.226732325621043</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2915782099884083</v>
+        <v>0.8537725485451446</v>
       </c>
       <c r="N18">
-        <v>1.374496948177215</v>
+        <v>0.5719808823158061</v>
       </c>
       <c r="O18">
-        <v>2.305108319619791</v>
+        <v>1.54730862325431</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.393000263608684</v>
+        <v>1.201494263268245</v>
       </c>
       <c r="C19">
-        <v>0.06335729607931739</v>
+        <v>0.146775313496164</v>
       </c>
       <c r="D19">
-        <v>0.1018674512105662</v>
+        <v>0.2821645571277998</v>
       </c>
       <c r="E19">
-        <v>0.1995606968606864</v>
+        <v>0.4809148721972534</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.5222958054130089</v>
+        <v>0.4393566380791754</v>
       </c>
       <c r="H19">
-        <v>0.646429120600061</v>
+        <v>0.3150263107990554</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3712329720829359</v>
+        <v>1.216323033861045</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2894760876668414</v>
+        <v>0.8460602888764939</v>
       </c>
       <c r="N19">
-        <v>1.375745836476372</v>
+        <v>0.5749649905377687</v>
       </c>
       <c r="O19">
-        <v>2.304857023665846</v>
+        <v>1.541061158982842</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4069216478735029</v>
+        <v>1.248900441852754</v>
       </c>
       <c r="C20">
-        <v>0.06474737115637197</v>
+        <v>0.1510850458531223</v>
       </c>
       <c r="D20">
-        <v>0.1050200903812453</v>
+        <v>0.2935955173354046</v>
       </c>
       <c r="E20">
-        <v>0.20444107216003</v>
+        <v>0.5008031440875556</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.523511296669497</v>
+        <v>0.4498934467017222</v>
       </c>
       <c r="H20">
-        <v>0.6457376694034593</v>
+        <v>0.3178483232237852</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3853233816810189</v>
+        <v>1.263191912599439</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.298941078192513</v>
+        <v>0.8808265880267214</v>
       </c>
       <c r="N20">
-        <v>1.370159222759987</v>
+        <v>0.5616193655981574</v>
       </c>
       <c r="O20">
-        <v>2.306077187135344</v>
+        <v>1.569439377093346</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4537056766710634</v>
+        <v>1.408820124913774</v>
       </c>
       <c r="C21">
-        <v>0.06939656194229826</v>
+        <v>0.1655883617274441</v>
       </c>
       <c r="D21">
-        <v>0.1156518988467496</v>
+        <v>0.3323376887786367</v>
       </c>
       <c r="E21">
-        <v>0.2209801096670745</v>
+        <v>0.5687987608201865</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.528007977359735</v>
+        <v>0.4867691607643252</v>
       </c>
       <c r="H21">
-        <v>0.6437484666615205</v>
+        <v>0.328153590159971</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4326075134495397</v>
+        <v>1.421179366391044</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3308332685124142</v>
+        <v>0.9987832446045104</v>
       </c>
       <c r="N21">
-        <v>1.35197602968562</v>
+        <v>0.5182777643335941</v>
       </c>
       <c r="O21">
-        <v>2.311740231617847</v>
+        <v>1.669624019671232</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4842869035138335</v>
+        <v>1.513896366635663</v>
       </c>
       <c r="C22">
-        <v>0.07241899983205258</v>
+        <v>0.1750907758776634</v>
       </c>
       <c r="D22">
-        <v>0.1226295402230306</v>
+        <v>0.3579382189824969</v>
       </c>
       <c r="E22">
-        <v>0.23189592364173</v>
+        <v>0.6142194902781881</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.531254973787199</v>
+        <v>0.5120584179102394</v>
       </c>
       <c r="H22">
-        <v>0.6426971818460743</v>
+        <v>0.3355427995477669</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4634651272395161</v>
+        <v>1.524894057288577</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3517445803211032</v>
+        <v>1.076845983156396</v>
       </c>
       <c r="N22">
-        <v>1.340530318902338</v>
+        <v>0.4911208708107306</v>
       </c>
       <c r="O22">
-        <v>2.31660740073454</v>
+        <v>1.738982559945242</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4679648065274193</v>
+        <v>1.457758579015831</v>
       </c>
       <c r="C23">
-        <v>0.07080735323467025</v>
+        <v>0.1700165670957716</v>
       </c>
       <c r="D23">
-        <v>0.1189027887005238</v>
+        <v>0.344247090835637</v>
       </c>
       <c r="E23">
-        <v>0.2260601287608992</v>
+        <v>0.5898806156181848</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5294937628967062</v>
+        <v>0.498446251253057</v>
       </c>
       <c r="H23">
-        <v>0.6432355187286021</v>
+        <v>0.3315365093639002</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.447000129687126</v>
+        <v>1.469492255562955</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3405776043284092</v>
+        <v>1.035085764544846</v>
       </c>
       <c r="N23">
-        <v>1.346598994745668</v>
+        <v>0.5055044968962079</v>
       </c>
       <c r="O23">
-        <v>2.313902958608281</v>
+        <v>1.701590982883687</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4061571080229669</v>
+        <v>1.246294907639111</v>
       </c>
       <c r="C24">
-        <v>0.0646711143278651</v>
+        <v>0.1508483041441622</v>
       </c>
       <c r="D24">
-        <v>0.1048468138634462</v>
+        <v>0.292966594653663</v>
       </c>
       <c r="E24">
-        <v>0.2041725350122618</v>
+        <v>0.4997068203283703</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5234429960006395</v>
+        <v>0.4493094947589782</v>
       </c>
       <c r="H24">
-        <v>0.6457743837885488</v>
+        <v>0.3176903517300929</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3845498150128606</v>
+        <v>1.260616351764185</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2984209633763015</v>
+        <v>0.8789133603163819</v>
       </c>
       <c r="N24">
-        <v>1.370463805619622</v>
+        <v>0.5623467386529555</v>
       </c>
       <c r="O24">
-        <v>2.306004301755763</v>
+        <v>1.567863459979577</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3395246709956723</v>
+        <v>1.020084556669929</v>
       </c>
       <c r="C25">
-        <v>0.0579845881327401</v>
+        <v>0.1302337585863285</v>
       </c>
       <c r="D25">
-        <v>0.08981153735874159</v>
+        <v>0.238665206561322</v>
       </c>
       <c r="E25">
-        <v>0.1810141234389562</v>
+        <v>0.4059818993625228</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5182360414621741</v>
+        <v>0.4008390194472611</v>
       </c>
       <c r="H25">
-        <v>0.6495819748121079</v>
+        <v>0.3053094108622076</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3170071071906762</v>
+        <v>1.03679966708799</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2532395618572707</v>
+        <v>0.7138910218578758</v>
       </c>
       <c r="N25">
-        <v>1.398083398149121</v>
+        <v>0.6283462579759611</v>
       </c>
       <c r="O25">
-        <v>2.302485441086418</v>
+        <v>1.438537267915734</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_2/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8545910445524214</v>
+        <v>2.532290966612834</v>
       </c>
       <c r="C2">
-        <v>0.1150649256887988</v>
+        <v>0.5205823552340405</v>
       </c>
       <c r="D2">
-        <v>0.1993508401210988</v>
+        <v>0.1920471690836507</v>
       </c>
       <c r="E2">
-        <v>0.3393298635902511</v>
+        <v>0.03672782136535213</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3684574719025875</v>
+        <v>1.862086208523976</v>
       </c>
       <c r="H2">
-        <v>0.298129908520508</v>
+        <v>0.02250254169598476</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.02050591442521865</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.151566703097956</v>
       </c>
       <c r="K2">
-        <v>0.8727550336503214</v>
+        <v>1.137313973211853</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.04505049763752211</v>
       </c>
       <c r="M2">
-        <v>0.5945734676635368</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6806416769281922</v>
+        <v>0.2872731463864113</v>
       </c>
       <c r="O2">
-        <v>1.354350125144578</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.4991083235638669</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7428451209221123</v>
+        <v>2.209598725925048</v>
       </c>
       <c r="C3">
-        <v>0.1047715540590133</v>
+        <v>0.4515754214393439</v>
       </c>
       <c r="D3">
-        <v>0.1730301490193256</v>
+        <v>0.1800140619077695</v>
       </c>
       <c r="E3">
-        <v>0.2953198571296838</v>
+        <v>0.03465976368655355</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3483056593211913</v>
+        <v>1.727604415667599</v>
       </c>
       <c r="H3">
-        <v>0.2943535341702699</v>
+        <v>0.0287060060216473</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.02649498158766539</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.092630227128979</v>
       </c>
       <c r="K3">
-        <v>0.7618090901405168</v>
+        <v>1.084293280540741</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.03867750320293695</v>
       </c>
       <c r="M3">
-        <v>0.5147299386471502</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7182400301312306</v>
+        <v>0.2576289598578825</v>
       </c>
       <c r="O3">
-        <v>1.303359104855986</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.4377827683490665</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6743590091769818</v>
+        <v>2.011805872357627</v>
       </c>
       <c r="C4">
-        <v>0.09843912405514743</v>
+        <v>0.4097045505782546</v>
       </c>
       <c r="D4">
-        <v>0.1569999405588334</v>
+        <v>0.1726879019787688</v>
       </c>
       <c r="E4">
-        <v>0.2687765181973631</v>
+        <v>0.03338045244300547</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3367344588731811</v>
+        <v>1.645479857700963</v>
       </c>
       <c r="H4">
-        <v>0.2925357280531813</v>
+        <v>0.03302656420439498</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.03072329382794203</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.056748968731853</v>
       </c>
       <c r="K4">
-        <v>0.6937287825081739</v>
+        <v>1.051778049973237</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.0348541450077029</v>
       </c>
       <c r="M4">
-        <v>0.4661040243659471</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7423430012428867</v>
+        <v>0.2395359109018074</v>
       </c>
       <c r="O4">
-        <v>1.274789949583635</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.4002471778040899</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6464719309990699</v>
+        <v>1.931222794462087</v>
       </c>
       <c r="C5">
-        <v>0.09585477942775356</v>
+        <v>0.3933743763975031</v>
       </c>
       <c r="D5">
-        <v>0.1504964737489018</v>
+        <v>0.1696579922104249</v>
       </c>
       <c r="E5">
-        <v>0.2580674396400937</v>
+        <v>0.03284042354213002</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3322092576614182</v>
+        <v>1.609270941392651</v>
       </c>
       <c r="H5">
-        <v>0.2919158216744577</v>
+        <v>0.03492336268708973</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.03268404015166526</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.040753163752413</v>
       </c>
       <c r="K5">
-        <v>0.6659862250841115</v>
+        <v>1.036661338940682</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.03333996454378507</v>
       </c>
       <c r="M5">
-        <v>0.4463744593568677</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7524142995201641</v>
+        <v>0.2323022216280179</v>
       </c>
       <c r="O5">
-        <v>1.263801531588314</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3850383546624059</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6418423180174955</v>
+        <v>1.917793957085337</v>
       </c>
       <c r="C6">
-        <v>0.09542539891078405</v>
+        <v>0.3914301429115028</v>
       </c>
       <c r="D6">
-        <v>0.1494182168913056</v>
+        <v>0.1690841273126011</v>
       </c>
       <c r="E6">
-        <v>0.2562953375680976</v>
+        <v>0.03273160086214943</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3314690097902613</v>
+        <v>1.599802506177838</v>
       </c>
       <c r="H6">
-        <v>0.291820042478399</v>
+        <v>0.03526136219536924</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.03315314858162743</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.036340726296885</v>
       </c>
       <c r="K6">
-        <v>0.6613793684533533</v>
+        <v>1.031869971340811</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.03311940606942443</v>
       </c>
       <c r="M6">
-        <v>0.4431031652161295</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7541014888413358</v>
+        <v>0.2312443861005278</v>
       </c>
       <c r="O6">
-        <v>1.262015402948435</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3825913365811644</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6739828400400825</v>
+        <v>2.010572549151959</v>
       </c>
       <c r="C7">
-        <v>0.09840428712920612</v>
+        <v>0.411565847093101</v>
       </c>
       <c r="D7">
-        <v>0.1569121202652184</v>
+        <v>0.1724517180516614</v>
       </c>
       <c r="E7">
-        <v>0.2686316728833376</v>
+        <v>0.03332150655507293</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.336672675326092</v>
+        <v>1.63552646044414</v>
       </c>
       <c r="H7">
-        <v>0.2925268849487992</v>
+        <v>0.03309257110268882</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.03109953751959527</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.051723385388783</v>
       </c>
       <c r="K7">
-        <v>0.69335464602797</v>
+        <v>1.045338530927545</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.03491468653527363</v>
       </c>
       <c r="M7">
-        <v>0.4658376150871888</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7424778261341736</v>
+        <v>0.2398270920100884</v>
       </c>
       <c r="O7">
-        <v>1.274639154128479</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.4002520296666177</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.816028485101441</v>
+        <v>2.420714947390366</v>
       </c>
       <c r="C8">
-        <v>0.1115178484124186</v>
+        <v>0.4994506455938392</v>
       </c>
       <c r="D8">
-        <v>0.1902458953889692</v>
+        <v>0.187626474462121</v>
       </c>
       <c r="E8">
-        <v>0.3240477985621411</v>
+        <v>0.03594805085417097</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3613355271142495</v>
+        <v>1.80304890921559</v>
       </c>
       <c r="H8">
-        <v>0.2967207070991265</v>
+        <v>0.02457673857854914</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.02286505216392865</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.124808457485813</v>
       </c>
       <c r="K8">
-        <v>0.8344864096827393</v>
+        <v>1.1107609763772</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.04293875403459779</v>
       </c>
       <c r="M8">
-        <v>0.5669518845010231</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6933902940005998</v>
+        <v>0.277546230681736</v>
       </c>
       <c r="O8">
-        <v>1.336178129531845</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.4782109160173391</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.096083047032749</v>
+        <v>3.229293978346902</v>
       </c>
       <c r="C9">
-        <v>0.1371735860263641</v>
+        <v>0.6726713924080912</v>
       </c>
       <c r="D9">
-        <v>0.2568400075316646</v>
+        <v>0.2183031965118829</v>
       </c>
       <c r="E9">
-        <v>0.4371434790740594</v>
+        <v>0.04115337288825405</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4166149858833705</v>
+        <v>2.153252893580287</v>
       </c>
       <c r="H9">
-        <v>0.3091625167077865</v>
+        <v>0.0121388532132391</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.01085790525796604</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.279686837970331</v>
       </c>
       <c r="K9">
-        <v>1.112042417963323</v>
+        <v>1.250969310406695</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.05938452500614133</v>
       </c>
       <c r="M9">
-        <v>0.7690906262386221</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6055183091018241</v>
+        <v>0.3518564193044966</v>
       </c>
       <c r="O9">
-        <v>1.480272094239723</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.6319320366242138</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.303514826945616</v>
+        <v>3.831112394787795</v>
       </c>
       <c r="C10">
-        <v>0.1560440064163657</v>
+        <v>0.8079086987134758</v>
       </c>
       <c r="D10">
-        <v>0.3067955414493326</v>
+        <v>0.2373399459244609</v>
       </c>
       <c r="E10">
-        <v>0.523868726690452</v>
+        <v>0.04434670953898667</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4622603612469049</v>
+        <v>2.36310595796138</v>
       </c>
       <c r="H10">
-        <v>0.3212345239791716</v>
+        <v>0.006423494051036371</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.005554954506994392</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.369912860248888</v>
       </c>
       <c r="K10">
-        <v>1.317166553512521</v>
+        <v>1.323495886411521</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.07467701893803991</v>
       </c>
       <c r="M10">
-        <v>0.9209935490309817</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5465331521549803</v>
+        <v>0.3970349120818497</v>
       </c>
       <c r="O10">
-        <v>1.602896524653715</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.7409065203763845</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.398426682693838</v>
+        <v>4.136908969627598</v>
       </c>
       <c r="C11">
-        <v>0.1646473247283495</v>
+        <v>0.9019900836107411</v>
       </c>
       <c r="D11">
-        <v>0.3298115547749063</v>
+        <v>0.2132309046692598</v>
       </c>
       <c r="E11">
-        <v>0.5643378145798152</v>
+        <v>0.04265179343016889</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4843123092689723</v>
+        <v>2.049575200447663</v>
       </c>
       <c r="H11">
-        <v>0.3274485565346197</v>
+        <v>0.02442020621538887</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.00505114137987217</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.205243930117405</v>
       </c>
       <c r="K11">
-        <v>1.410916798207126</v>
+        <v>1.112995436111824</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1075207969099523</v>
       </c>
       <c r="M11">
-        <v>0.9910857065453911</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5210192146011536</v>
+        <v>0.3312922671975969</v>
       </c>
       <c r="O11">
-        <v>1.662911830447143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.7453414425632374</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.434462350428902</v>
+        <v>4.269053502011957</v>
       </c>
       <c r="C12">
-        <v>0.1679091642945991</v>
+        <v>0.9507388599955391</v>
       </c>
       <c r="D12">
-        <v>0.3385748001755928</v>
+        <v>0.1904244256299137</v>
       </c>
       <c r="E12">
-        <v>0.57982916756837</v>
+        <v>0.04390485528578925</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4928653342005163</v>
+        <v>1.773235591408962</v>
       </c>
       <c r="H12">
-        <v>0.3299132191777261</v>
+        <v>0.06324813422293829</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.004929579106920379</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.063166681833394</v>
       </c>
       <c r="K12">
-        <v>1.446495716999891</v>
+        <v>0.9453991029513915</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1377131850581108</v>
       </c>
       <c r="M12">
-        <v>1.017792725450548</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5115573639086186</v>
+        <v>0.2714861163188687</v>
       </c>
       <c r="O12">
-        <v>1.686299675157102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.7251057005214818</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.426696957706696</v>
+        <v>4.273497970520907</v>
       </c>
       <c r="C13">
-        <v>0.1672064727705305</v>
+        <v>0.9701400497759778</v>
       </c>
       <c r="D13">
-        <v>0.3366852668367528</v>
+        <v>0.1671136861521347</v>
       </c>
       <c r="E13">
-        <v>0.5764850772122188</v>
+        <v>0.04732784359054065</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4910139958013531</v>
+        <v>1.495313849719452</v>
       </c>
       <c r="H13">
-        <v>0.3293773211394608</v>
+        <v>0.1197933614364928</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.005482940316357876</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.9229367155074897</v>
       </c>
       <c r="K13">
-        <v>1.438829456543772</v>
+        <v>0.7915729014620467</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.167302895247559</v>
       </c>
       <c r="M13">
-        <v>1.012033196580546</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5135860916248447</v>
+        <v>0.2138436490075506</v>
       </c>
       <c r="O13">
-        <v>1.681232391233209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.685223336254424</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.401389369780389</v>
+        <v>4.218749762411221</v>
       </c>
       <c r="C14">
-        <v>0.1649155917865528</v>
+        <v>0.9711974478652223</v>
       </c>
       <c r="D14">
-        <v>0.3305315244263909</v>
+        <v>0.1508571489394583</v>
       </c>
       <c r="E14">
-        <v>0.5656088365807932</v>
+        <v>0.05109299873337214</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4850118114248545</v>
+        <v>1.302004778538816</v>
       </c>
       <c r="H14">
-        <v>0.3276490444653035</v>
+        <v>0.1700139477056695</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.006326696927821729</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.826457423961827</v>
       </c>
       <c r="K14">
-        <v>1.413842251028598</v>
+        <v>0.6917215141756969</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1883088344098596</v>
       </c>
       <c r="M14">
-        <v>0.9932794761089525</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5202367193331696</v>
+        <v>0.175771607582881</v>
       </c>
       <c r="O14">
-        <v>1.664822392840932</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.6487276417245553</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.385900541875714</v>
+        <v>4.177913990427101</v>
       </c>
       <c r="C15">
-        <v>0.1635129130127666</v>
+        <v>0.9659160279417449</v>
       </c>
       <c r="D15">
-        <v>0.3267685527452926</v>
+        <v>0.1466120626074527</v>
       </c>
       <c r="E15">
-        <v>0.5589691508347485</v>
+        <v>0.05203977421530581</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4813621962964589</v>
+        <v>1.250105251701186</v>
       </c>
       <c r="H15">
-        <v>0.3266051881255834</v>
+        <v>0.1829553471961987</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.006854631787408749</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.8011201157215311</v>
       </c>
       <c r="K15">
-        <v>1.398547445540515</v>
+        <v>0.6670111933185368</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1925335326253759</v>
       </c>
       <c r="M15">
-        <v>0.9818144100223165</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5243367424791101</v>
+        <v>0.1663963232247312</v>
       </c>
       <c r="O15">
-        <v>1.654858550167802</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.635892035981712</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.297324482915826</v>
+        <v>3.915822235691508</v>
       </c>
       <c r="C16">
-        <v>0.1554822439294554</v>
+        <v>0.9037045131952368</v>
       </c>
       <c r="D16">
-        <v>0.3052977280430156</v>
+        <v>0.1436285886852389</v>
       </c>
       <c r="E16">
-        <v>0.5212461452701902</v>
+        <v>0.04981087828812036</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4608465736844778</v>
+        <v>1.216709265958755</v>
       </c>
       <c r="H16">
-        <v>0.320843601669722</v>
+        <v>0.1725554188831353</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.009015489758948725</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.7905122093109895</v>
       </c>
       <c r="K16">
-        <v>1.311049805982606</v>
+        <v>0.6666175685713966</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.178872892386849</v>
       </c>
       <c r="M16">
-        <v>0.9164346536855348</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5482279307887108</v>
+        <v>0.1607222864990092</v>
       </c>
       <c r="O16">
-        <v>1.599063976694879</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.5982989552725186</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.243137510836334</v>
+        <v>3.744543101839497</v>
       </c>
       <c r="C17">
-        <v>0.1505613996676374</v>
+        <v>0.8557366712617238</v>
       </c>
       <c r="D17">
-        <v>0.2922045650016543</v>
+        <v>0.1497522560895632</v>
       </c>
       <c r="E17">
-        <v>0.4983787918899765</v>
+        <v>0.0458432842470895</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4486026059785786</v>
+        <v>1.290842224961239</v>
       </c>
       <c r="H17">
-        <v>0.3174993639067054</v>
+        <v>0.1361721194203085</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01030773501649929</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.8322943092283026</v>
       </c>
       <c r="K17">
-        <v>1.257495208765619</v>
+        <v>0.7172228382434369</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1569645595776095</v>
       </c>
       <c r="M17">
-        <v>0.8765952771737986</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5632291180109839</v>
+        <v>0.1757557847731874</v>
       </c>
       <c r="O17">
-        <v>1.565956259630127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.5887436989869741</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.212021381772985</v>
+        <v>3.631676901860487</v>
       </c>
       <c r="C18">
-        <v>0.1477327768613179</v>
+        <v>0.8128898478146027</v>
       </c>
       <c r="D18">
-        <v>0.2847007479034005</v>
+        <v>0.1652587274709418</v>
       </c>
       <c r="E18">
-        <v>0.4853205416646134</v>
+        <v>0.04147401227983671</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4416802940853159</v>
+        <v>1.481708023433612</v>
       </c>
       <c r="H18">
-        <v>0.3156433540333126</v>
+        <v>0.08370079448446432</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.0104171769442134</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.9316711482138373</v>
       </c>
       <c r="K18">
-        <v>1.226732325621043</v>
+        <v>0.8293396655795249</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1279058745993069</v>
       </c>
       <c r="M18">
-        <v>0.8537725485451446</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5719808823158061</v>
+        <v>0.213227016400829</v>
       </c>
       <c r="O18">
-        <v>1.54730862325431</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.60187480436295</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.201494263268245</v>
+        <v>3.573702340190778</v>
       </c>
       <c r="C19">
-        <v>0.146775313496164</v>
+        <v>0.7823294579477249</v>
       </c>
       <c r="D19">
-        <v>0.2821645571277998</v>
+        <v>0.1881407088258982</v>
       </c>
       <c r="E19">
-        <v>0.4809148721972534</v>
+        <v>0.03940640046495014</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4393566380791754</v>
+        <v>1.755143866965682</v>
       </c>
       <c r="H19">
-        <v>0.3150263107990554</v>
+        <v>0.0376319073156921</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01008308849722628</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.070972400789628</v>
       </c>
       <c r="K19">
-        <v>1.216323033861045</v>
+        <v>0.987601357052192</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.09925939690837282</v>
       </c>
       <c r="M19">
-        <v>0.8460602888764939</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5749649905377687</v>
+        <v>0.2716343286366083</v>
       </c>
       <c r="O19">
-        <v>1.541061158982842</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.6327983928653609</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.248900441852754</v>
+        <v>3.672155681673814</v>
       </c>
       <c r="C20">
-        <v>0.1510850458531223</v>
+        <v>0.7788983750960199</v>
       </c>
       <c r="D20">
-        <v>0.2935955173354046</v>
+        <v>0.2315459087290179</v>
       </c>
       <c r="E20">
-        <v>0.5008031440875556</v>
+        <v>0.04331844778107685</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4498934467017222</v>
+        <v>2.276167115475744</v>
       </c>
       <c r="H20">
-        <v>0.3178483232237852</v>
+        <v>0.007763859518328697</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.007641657448974826</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1.330139708585392</v>
       </c>
       <c r="K20">
-        <v>1.263191912599439</v>
+        <v>1.283915541234933</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.07094408615807168</v>
       </c>
       <c r="M20">
-        <v>0.8808265880267214</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5616193655981574</v>
+        <v>0.3859155373815071</v>
       </c>
       <c r="O20">
-        <v>1.569439377093346</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.7126293084419117</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.408820124913774</v>
+        <v>4.130571343444274</v>
       </c>
       <c r="C21">
-        <v>0.1655883617274441</v>
+        <v>0.8780045090773854</v>
       </c>
       <c r="D21">
-        <v>0.3323376887786367</v>
+        <v>0.2524403378579763</v>
       </c>
       <c r="E21">
-        <v>0.5687987608201865</v>
+        <v>0.04681791765247301</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4867691607643252</v>
+        <v>2.518433140030965</v>
       </c>
       <c r="H21">
-        <v>0.328153590159971</v>
+        <v>0.003813170459945336</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.004340538609429956</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.440304628422865</v>
       </c>
       <c r="K21">
-        <v>1.421179366391044</v>
+        <v>1.388197934891252</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.07915131490012328</v>
       </c>
       <c r="M21">
-        <v>0.9987832446045104</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5182777643335941</v>
+        <v>0.4369742932347407</v>
       </c>
       <c r="O21">
-        <v>1.669624019671232</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.8046632458467329</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.513896366635663</v>
+        <v>4.433773429239977</v>
       </c>
       <c r="C22">
-        <v>0.1750907758776634</v>
+        <v>0.9426266630899534</v>
       </c>
       <c r="D22">
-        <v>0.3579382189824969</v>
+        <v>0.2645080811665395</v>
       </c>
       <c r="E22">
-        <v>0.6142194902781881</v>
+        <v>0.04887498959198844</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5120584179102394</v>
+        <v>2.666647536343305</v>
       </c>
       <c r="H22">
-        <v>0.3355427995477669</v>
+        <v>0.002096103135076577</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.002634286824654275</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.507247642386488</v>
       </c>
       <c r="K22">
-        <v>1.524894057288577</v>
+        <v>1.450457390045173</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.08586475204309352</v>
       </c>
       <c r="M22">
-        <v>1.076845983156396</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4911208708107306</v>
+        <v>0.4647220145104143</v>
       </c>
       <c r="O22">
-        <v>1.738982559945242</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.8622580360487788</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.457758579015831</v>
+        <v>4.272098373583219</v>
       </c>
       <c r="C23">
-        <v>0.1700165670957716</v>
+        <v>0.9055067913907919</v>
       </c>
       <c r="D23">
-        <v>0.344247090835637</v>
+        <v>0.2582849723178953</v>
       </c>
       <c r="E23">
-        <v>0.5898806156181848</v>
+        <v>0.04783570785270452</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.498446251253057</v>
+        <v>2.598663901828701</v>
       </c>
       <c r="H23">
-        <v>0.3315365093639002</v>
+        <v>0.002934582501445071</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.003138346719482321</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.477118859423229</v>
       </c>
       <c r="K23">
-        <v>1.469492255562955</v>
+        <v>1.424535392254484</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.08217144490244976</v>
       </c>
       <c r="M23">
-        <v>1.035085764544846</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5055044968962079</v>
+        <v>0.4494108982487717</v>
       </c>
       <c r="O23">
-        <v>1.701590982883687</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.83124567650421</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.246294907639111</v>
+        <v>3.66231524332153</v>
       </c>
       <c r="C24">
-        <v>0.1508483041441622</v>
+        <v>0.770956203415551</v>
       </c>
       <c r="D24">
-        <v>0.292966594653663</v>
+        <v>0.2346133442321161</v>
       </c>
       <c r="E24">
-        <v>0.4997068203283703</v>
+        <v>0.04385817295372396</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4493094947589782</v>
+        <v>2.326686870523133</v>
       </c>
       <c r="H24">
-        <v>0.3176903517300929</v>
+        <v>0.007497881596991496</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.007047308381813444</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.355759207054547</v>
       </c>
       <c r="K24">
-        <v>1.260616351764185</v>
+        <v>1.315874065611581</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.06874144211824174</v>
       </c>
       <c r="M24">
-        <v>0.8789133603163819</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5623467386529555</v>
+        <v>0.392690342370102</v>
       </c>
       <c r="O24">
-        <v>1.567863459979577</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.7148826323070878</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.020084556669929</v>
+        <v>3.009568544021249</v>
       </c>
       <c r="C25">
-        <v>0.1302337585863285</v>
+        <v>0.6290437079645415</v>
       </c>
       <c r="D25">
-        <v>0.238665206561322</v>
+        <v>0.2095799946863508</v>
       </c>
       <c r="E25">
-        <v>0.4059818993625228</v>
+        <v>0.03965052074416464</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4008390194472611</v>
+        <v>2.040646519510915</v>
       </c>
       <c r="H25">
-        <v>0.3053094108622076</v>
+        <v>0.01504817567033861</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.01410643123441524</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.228703248590364</v>
       </c>
       <c r="K25">
-        <v>1.03679966708799</v>
+        <v>1.201628700549016</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.05496596690557354</v>
       </c>
       <c r="M25">
-        <v>0.7138910218578758</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6283462579759611</v>
+        <v>0.3323322481563054</v>
       </c>
       <c r="O25">
-        <v>1.438537267915734</v>
+        <v>0.5905469187511088</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_2/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.532290966612834</v>
+        <v>2.52967100597516</v>
       </c>
       <c r="C2">
-        <v>0.5205823552340405</v>
+        <v>0.6085681325339181</v>
       </c>
       <c r="D2">
-        <v>0.1920471690836507</v>
+        <v>0.1858221167588852</v>
       </c>
       <c r="E2">
-        <v>0.03672782136535213</v>
+        <v>0.03609410924636736</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.862086208523976</v>
+        <v>1.429992311900321</v>
       </c>
       <c r="H2">
-        <v>0.02250254169598476</v>
+        <v>0.0181326982678266</v>
       </c>
       <c r="I2">
-        <v>0.02050591442521865</v>
+        <v>0.0146794245817965</v>
       </c>
       <c r="J2">
-        <v>1.151566703097956</v>
+        <v>0.9390344252470157</v>
       </c>
       <c r="K2">
-        <v>1.137313973211853</v>
+        <v>0.8444664833742266</v>
       </c>
       <c r="L2">
-        <v>0.04505049763752211</v>
+        <v>0.3414230659103552</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2918669714941977</v>
       </c>
       <c r="N2">
-        <v>0.2872731463864113</v>
+        <v>0.05014805161274083</v>
       </c>
       <c r="O2">
-        <v>0.4991083235638669</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.3160453630257365</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.5090131079791504</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.209598725925048</v>
+        <v>2.205766796358716</v>
       </c>
       <c r="C3">
-        <v>0.4515754214393439</v>
+        <v>0.5249850480803957</v>
       </c>
       <c r="D3">
-        <v>0.1800140619077695</v>
+        <v>0.175261346905188</v>
       </c>
       <c r="E3">
-        <v>0.03465976368655355</v>
+        <v>0.03449767376756685</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.727604415667599</v>
+        <v>1.351571630381486</v>
       </c>
       <c r="H3">
-        <v>0.0287060060216473</v>
+        <v>0.02312010419458332</v>
       </c>
       <c r="I3">
-        <v>0.02649498158766539</v>
+        <v>0.01899666880462814</v>
       </c>
       <c r="J3">
-        <v>1.092630227128979</v>
+        <v>0.8975029003101724</v>
       </c>
       <c r="K3">
-        <v>1.084293280540741</v>
+        <v>0.8226201063725895</v>
       </c>
       <c r="L3">
-        <v>0.03867750320293695</v>
+        <v>0.3391071145253761</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2794098597295083</v>
       </c>
       <c r="N3">
-        <v>0.2576289598578825</v>
+        <v>0.0432843799079059</v>
       </c>
       <c r="O3">
-        <v>0.4377827683490665</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.284217830939852</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.4459029851559322</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.011805872357627</v>
+        <v>2.006897137022406</v>
       </c>
       <c r="C4">
-        <v>0.4097045505782546</v>
+        <v>0.4742641043977187</v>
       </c>
       <c r="D4">
-        <v>0.1726879019787688</v>
+        <v>0.1688398026656799</v>
       </c>
       <c r="E4">
-        <v>0.03338045244300547</v>
+        <v>0.03350452138120086</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.645479857700963</v>
+        <v>1.303817528761755</v>
       </c>
       <c r="H4">
-        <v>0.03302656420439498</v>
+        <v>0.0265969215509696</v>
       </c>
       <c r="I4">
-        <v>0.03072329382794203</v>
+        <v>0.02206919674422325</v>
       </c>
       <c r="J4">
-        <v>1.056748968731853</v>
+        <v>0.8717751570329426</v>
       </c>
       <c r="K4">
-        <v>1.051778049973237</v>
+        <v>0.8090987606481548</v>
       </c>
       <c r="L4">
-        <v>0.0348541450077029</v>
+        <v>0.3373563843753615</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2725608095427603</v>
       </c>
       <c r="N4">
-        <v>0.2395359109018074</v>
+        <v>0.0391414710069995</v>
       </c>
       <c r="O4">
-        <v>0.4002471778040899</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2648042288627721</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4072317456569294</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.931222794462087</v>
+        <v>1.925797029917817</v>
       </c>
       <c r="C5">
-        <v>0.3933743763975031</v>
+        <v>0.454333346841878</v>
       </c>
       <c r="D5">
-        <v>0.1696579922104249</v>
+        <v>0.1661880772900872</v>
       </c>
       <c r="E5">
-        <v>0.03284042354213002</v>
+        <v>0.03308448482288884</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.609270941392651</v>
+        <v>1.28228524942908</v>
       </c>
       <c r="H5">
-        <v>0.03492336268708973</v>
+        <v>0.02812369662051961</v>
       </c>
       <c r="I5">
-        <v>0.03268404015166526</v>
+        <v>0.02353548408971129</v>
       </c>
       <c r="J5">
-        <v>1.040753163752413</v>
+        <v>0.860096380102874</v>
       </c>
       <c r="K5">
-        <v>1.036661338940682</v>
+        <v>0.8022005937671253</v>
       </c>
       <c r="L5">
-        <v>0.03333996454378507</v>
+        <v>0.3359813957868454</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.2695316695475682</v>
       </c>
       <c r="N5">
-        <v>0.2323022216280179</v>
+        <v>0.03749271921799036</v>
       </c>
       <c r="O5">
-        <v>0.3850383546624059</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2570259189612472</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3915435301456256</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.917793957085337</v>
+        <v>1.912276230746158</v>
       </c>
       <c r="C6">
-        <v>0.3914301429115028</v>
+        <v>0.4517685677306531</v>
       </c>
       <c r="D6">
-        <v>0.1690841273126011</v>
+        <v>0.1656881683410134</v>
       </c>
       <c r="E6">
-        <v>0.03273160086214943</v>
+        <v>0.03300043673800124</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.599802506177838</v>
+        <v>1.276084288327439</v>
       </c>
       <c r="H6">
-        <v>0.03526136219536924</v>
+        <v>0.02839526638071788</v>
       </c>
       <c r="I6">
-        <v>0.03315314858162743</v>
+        <v>0.02393128954200741</v>
       </c>
       <c r="J6">
-        <v>1.036340726296885</v>
+        <v>0.856768252063091</v>
       </c>
       <c r="K6">
-        <v>1.031869971340811</v>
+        <v>0.7993977191884269</v>
       </c>
       <c r="L6">
-        <v>0.03311940606942443</v>
+        <v>0.3350429661430638</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.2685082070301981</v>
       </c>
       <c r="N6">
-        <v>0.2312443861005278</v>
+        <v>0.03724918912906361</v>
       </c>
       <c r="O6">
-        <v>0.3825913365811644</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.255863477147301</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3890070191929098</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.010572549151959</v>
+        <v>2.005710315819215</v>
       </c>
       <c r="C7">
-        <v>0.411565847093101</v>
+        <v>0.4750636442145151</v>
       </c>
       <c r="D7">
-        <v>0.1724517180516614</v>
+        <v>0.1686842922643947</v>
       </c>
       <c r="E7">
-        <v>0.03332150655507293</v>
+        <v>0.03345642039214702</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.63552646044414</v>
+        <v>1.299094420024957</v>
       </c>
       <c r="H7">
-        <v>0.03309257110268882</v>
+        <v>0.02666810715670254</v>
       </c>
       <c r="I7">
-        <v>0.03109953751959527</v>
+        <v>0.0224863799338415</v>
       </c>
       <c r="J7">
-        <v>1.051723385388783</v>
+        <v>0.8581807799804437</v>
       </c>
       <c r="K7">
-        <v>1.045338530927545</v>
+        <v>0.8023152164218459</v>
       </c>
       <c r="L7">
-        <v>0.03491468653527363</v>
+        <v>0.334528902617933</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2703264459467398</v>
       </c>
       <c r="N7">
-        <v>0.2398270920100884</v>
+        <v>0.03914432533055745</v>
       </c>
       <c r="O7">
-        <v>0.4002520296666177</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2648609179266543</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4071236864786414</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.420714947390366</v>
+        <v>2.417916731632658</v>
       </c>
       <c r="C8">
-        <v>0.4994506455938392</v>
+        <v>0.5791132760678011</v>
       </c>
       <c r="D8">
-        <v>0.187626474462121</v>
+        <v>0.1821052836984336</v>
       </c>
       <c r="E8">
-        <v>0.03594805085417097</v>
+        <v>0.03548402260678052</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.80304890921559</v>
+        <v>1.402658326880186</v>
       </c>
       <c r="H8">
-        <v>0.02457673857854914</v>
+        <v>0.0198501384254175</v>
       </c>
       <c r="I8">
-        <v>0.02286505216392865</v>
+        <v>0.01658007759151214</v>
       </c>
       <c r="J8">
-        <v>1.124808457485813</v>
+        <v>0.8880645013452693</v>
       </c>
       <c r="K8">
-        <v>1.1107609763772</v>
+        <v>0.8239251595266239</v>
       </c>
       <c r="L8">
-        <v>0.04293875403459779</v>
+        <v>0.3354804873641584</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2828697068101427</v>
       </c>
       <c r="N8">
-        <v>0.277546230681736</v>
+        <v>0.0476856258800602</v>
       </c>
       <c r="O8">
-        <v>0.4782109160173391</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.3048820988744865</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4871989757597888</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.229293978346902</v>
+        <v>3.227347448731848</v>
       </c>
       <c r="C9">
-        <v>0.6726713924080912</v>
+        <v>0.7883335679827326</v>
       </c>
       <c r="D9">
-        <v>0.2183031965118829</v>
+        <v>0.209112437252486</v>
       </c>
       <c r="E9">
-        <v>0.04115337288825405</v>
+        <v>0.03946470050445017</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.153252893580287</v>
+        <v>1.612590586746734</v>
       </c>
       <c r="H9">
-        <v>0.0121388532132391</v>
+        <v>0.00985402479794395</v>
       </c>
       <c r="I9">
-        <v>0.01085790525796604</v>
+        <v>0.007909724923258921</v>
       </c>
       <c r="J9">
-        <v>1.279686837970331</v>
+        <v>0.9862442944709358</v>
       </c>
       <c r="K9">
-        <v>1.250969310406695</v>
+        <v>0.8815154690337152</v>
       </c>
       <c r="L9">
-        <v>0.05938452500614133</v>
+        <v>0.3412224650293183</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.3193794721220229</v>
       </c>
       <c r="N9">
-        <v>0.3518564193044966</v>
+        <v>0.06517050219522602</v>
       </c>
       <c r="O9">
-        <v>0.6319320366242138</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.3845990276468711</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.645037164046073</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.831112394787795</v>
+        <v>3.827863285430112</v>
       </c>
       <c r="C10">
-        <v>0.8079086987134758</v>
+        <v>0.9427622898836034</v>
       </c>
       <c r="D10">
-        <v>0.2373399459244609</v>
+        <v>0.22604184139837</v>
       </c>
       <c r="E10">
-        <v>0.04434670953898667</v>
+        <v>0.0419267303360229</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.36310595796138</v>
+        <v>1.751712805767824</v>
       </c>
       <c r="H10">
-        <v>0.006423494051036371</v>
+        <v>0.005338168285623723</v>
       </c>
       <c r="I10">
-        <v>0.005554954506994392</v>
+        <v>0.004285933509214246</v>
       </c>
       <c r="J10">
-        <v>1.369912860248888</v>
+        <v>0.9860313028052872</v>
       </c>
       <c r="K10">
-        <v>1.323495886411521</v>
+        <v>0.8920614959557938</v>
       </c>
       <c r="L10">
-        <v>0.07467701893803991</v>
+        <v>0.332642274410837</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3379376292335436</v>
       </c>
       <c r="N10">
-        <v>0.3970349120818497</v>
+        <v>0.08091520684383369</v>
       </c>
       <c r="O10">
-        <v>0.7409065203763845</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.4318277363351086</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.7559341427292949</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.136908969627598</v>
+        <v>4.134765257775086</v>
       </c>
       <c r="C11">
-        <v>0.9019900836107411</v>
+        <v>1.018700462012134</v>
       </c>
       <c r="D11">
-        <v>0.2132309046692598</v>
+        <v>0.204048174070607</v>
       </c>
       <c r="E11">
-        <v>0.04265179343016889</v>
+        <v>0.04151732479204595</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.049575200447663</v>
+        <v>1.560570956552255</v>
       </c>
       <c r="H11">
-        <v>0.02442020621538887</v>
+        <v>0.02353234239631519</v>
       </c>
       <c r="I11">
-        <v>0.00505114137987217</v>
+        <v>0.004227239636040103</v>
       </c>
       <c r="J11">
-        <v>1.205243930117405</v>
+        <v>0.7738230697912059</v>
       </c>
       <c r="K11">
-        <v>1.112995436111824</v>
+        <v>0.7303673885330397</v>
       </c>
       <c r="L11">
-        <v>0.1075207969099523</v>
+        <v>0.2708289737358065</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.28003115987228</v>
       </c>
       <c r="N11">
-        <v>0.3312922671975969</v>
+        <v>0.1144385663233365</v>
       </c>
       <c r="O11">
-        <v>0.7453414425632374</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.3583996504409868</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.7580264919045305</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.269053502011957</v>
+        <v>4.268255243874307</v>
       </c>
       <c r="C12">
-        <v>0.9507388599955391</v>
+        <v>1.050503684996158</v>
       </c>
       <c r="D12">
-        <v>0.1904244256299137</v>
+        <v>0.183051840333377</v>
       </c>
       <c r="E12">
-        <v>0.04390485528578925</v>
+        <v>0.04368240810231239</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.773235591408962</v>
+        <v>1.379183389527157</v>
       </c>
       <c r="H12">
-        <v>0.06324813422293829</v>
+        <v>0.06235355381289054</v>
       </c>
       <c r="I12">
-        <v>0.004929579106920379</v>
+        <v>0.004134813582463259</v>
       </c>
       <c r="J12">
-        <v>1.063166681833394</v>
+        <v>0.6479161404145941</v>
       </c>
       <c r="K12">
-        <v>0.9453991029513915</v>
+        <v>0.6181410202200084</v>
       </c>
       <c r="L12">
-        <v>0.1377131850581108</v>
+        <v>0.2307744501939375</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2365813335238158</v>
       </c>
       <c r="N12">
-        <v>0.2714861163188687</v>
+        <v>0.1448259160441481</v>
       </c>
       <c r="O12">
-        <v>0.7251057005214818</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2930756531617504</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.7358279372748555</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.273497970520907</v>
+        <v>4.274269453616739</v>
       </c>
       <c r="C13">
-        <v>0.9701400497759778</v>
+        <v>1.05590031989658</v>
       </c>
       <c r="D13">
-        <v>0.1671136861521347</v>
+        <v>0.1613691643795221</v>
       </c>
       <c r="E13">
-        <v>0.04732784359054065</v>
+        <v>0.0479219410930245</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.495313849719452</v>
+        <v>1.1792632750726</v>
       </c>
       <c r="H13">
-        <v>0.1197933614364928</v>
+        <v>0.1187101907566444</v>
       </c>
       <c r="I13">
-        <v>0.005482940316357876</v>
+        <v>0.004466905807755772</v>
       </c>
       <c r="J13">
-        <v>0.9229367155074897</v>
+        <v>0.5780257109315841</v>
       </c>
       <c r="K13">
-        <v>0.7915729014620467</v>
+        <v>0.5309325086705954</v>
       </c>
       <c r="L13">
-        <v>0.167302895247559</v>
+        <v>0.2015076554550319</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.2003253109223131</v>
       </c>
       <c r="N13">
-        <v>0.2138436490075506</v>
+        <v>0.1746157105835664</v>
       </c>
       <c r="O13">
-        <v>0.685223336254424</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.2313449135495631</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6943349657261919</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.218749762411221</v>
+        <v>4.220643952462524</v>
       </c>
       <c r="C14">
-        <v>0.9711974478652223</v>
+        <v>1.048354971302274</v>
       </c>
       <c r="D14">
-        <v>0.1508571489394583</v>
+        <v>0.1461766255504102</v>
       </c>
       <c r="E14">
-        <v>0.05109299873337214</v>
+        <v>0.05222366490216857</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.302004778538816</v>
+        <v>1.033770415548403</v>
       </c>
       <c r="H14">
-        <v>0.1700139477056695</v>
+        <v>0.1687027556129124</v>
       </c>
       <c r="I14">
-        <v>0.006326696927821729</v>
+        <v>0.005035540981735309</v>
       </c>
       <c r="J14">
-        <v>0.826457423961827</v>
+        <v>0.548211837563386</v>
       </c>
       <c r="K14">
-        <v>0.6917215141756969</v>
+        <v>0.4799490979979737</v>
       </c>
       <c r="L14">
-        <v>0.1883088344098596</v>
+        <v>0.1850383260014574</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1781425977411146</v>
       </c>
       <c r="N14">
-        <v>0.175771607582881</v>
+        <v>0.1957717178427956</v>
       </c>
       <c r="O14">
-        <v>0.6487276417245553</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1909620418578157</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6568325610357917</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.177913990427101</v>
+        <v>4.180094771598988</v>
       </c>
       <c r="C15">
-        <v>0.9659160279417449</v>
+        <v>1.041521845390037</v>
       </c>
       <c r="D15">
-        <v>0.1466120626074527</v>
+        <v>0.1422003715772604</v>
       </c>
       <c r="E15">
-        <v>0.05203977421530581</v>
+        <v>0.05333202429030592</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.250105251701186</v>
+        <v>0.9926067876172482</v>
       </c>
       <c r="H15">
-        <v>0.1829553471961987</v>
+        <v>0.1815340078056522</v>
       </c>
       <c r="I15">
-        <v>0.006854631787408749</v>
+        <v>0.005447561403963519</v>
       </c>
       <c r="J15">
-        <v>0.8011201157215311</v>
+        <v>0.5473487189261022</v>
       </c>
       <c r="K15">
-        <v>0.6670111933185368</v>
+        <v>0.4694467363588082</v>
       </c>
       <c r="L15">
-        <v>0.1925335326253759</v>
+        <v>0.1818738071640986</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1731806987287534</v>
       </c>
       <c r="N15">
-        <v>0.1663963232247312</v>
+        <v>0.2000962129124915</v>
       </c>
       <c r="O15">
-        <v>0.635892035981712</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1811606684160694</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.6437851254960378</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.915822235691508</v>
+        <v>3.918021377561161</v>
       </c>
       <c r="C16">
-        <v>0.9037045131952368</v>
+        <v>0.9839184988067586</v>
       </c>
       <c r="D16">
-        <v>0.1436285886852389</v>
+        <v>0.1393834847164115</v>
       </c>
       <c r="E16">
-        <v>0.04981087828812036</v>
+        <v>0.05146597894497518</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.216709265958755</v>
+        <v>0.9526204955805753</v>
       </c>
       <c r="H16">
-        <v>0.1725554188831353</v>
+        <v>0.1705831082124121</v>
       </c>
       <c r="I16">
-        <v>0.009015489758948725</v>
+        <v>0.006939653083287034</v>
       </c>
       <c r="J16">
-        <v>0.7905122093109895</v>
+        <v>0.6099521798172844</v>
       </c>
       <c r="K16">
-        <v>0.6666175685713966</v>
+        <v>0.4899054783505292</v>
       </c>
       <c r="L16">
-        <v>0.178872892386849</v>
+        <v>0.1909766145495624</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.178111661934242</v>
       </c>
       <c r="N16">
-        <v>0.1607222864990092</v>
+        <v>0.187106140781097</v>
       </c>
       <c r="O16">
-        <v>0.5982989552725186</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.176523536505762</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.6064573495629233</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.744543101839497</v>
+        <v>3.746186074885713</v>
       </c>
       <c r="C17">
-        <v>0.8557366712617238</v>
+        <v>0.9422411245657258</v>
       </c>
       <c r="D17">
-        <v>0.1497522560895632</v>
+        <v>0.1451309392528159</v>
       </c>
       <c r="E17">
-        <v>0.0458432842470895</v>
+        <v>0.04742278116314047</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.290842224961239</v>
+        <v>0.9994813684096044</v>
       </c>
       <c r="H17">
-        <v>0.1361721194203085</v>
+        <v>0.133894339798232</v>
       </c>
       <c r="I17">
-        <v>0.01030773501649929</v>
+        <v>0.007861463934220936</v>
       </c>
       <c r="J17">
-        <v>0.8322943092283026</v>
+        <v>0.6707009535726058</v>
       </c>
       <c r="K17">
-        <v>0.7172228382434369</v>
+        <v>0.5317336414025462</v>
       </c>
       <c r="L17">
-        <v>0.1569645595776095</v>
+        <v>0.2070754234276961</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1926979562988151</v>
       </c>
       <c r="N17">
-        <v>0.1757557847731874</v>
+        <v>0.1654148378073614</v>
       </c>
       <c r="O17">
-        <v>0.5887436989869741</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1934950215733977</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.5975150491722232</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.631676901860487</v>
+        <v>3.632325715185004</v>
       </c>
       <c r="C18">
-        <v>0.8128898478146027</v>
+        <v>0.9099946186770751</v>
       </c>
       <c r="D18">
-        <v>0.1652587274709418</v>
+        <v>0.1595595280006989</v>
       </c>
       <c r="E18">
-        <v>0.04147401227983671</v>
+        <v>0.04252884067137952</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.481708023433612</v>
+        <v>1.131481635764843</v>
       </c>
       <c r="H18">
-        <v>0.08370079448446432</v>
+        <v>0.08136657829069094</v>
       </c>
       <c r="I18">
-        <v>0.0104171769442134</v>
+        <v>0.007839602180995442</v>
       </c>
       <c r="J18">
-        <v>0.9316711482138373</v>
+        <v>0.7551521192537933</v>
       </c>
       <c r="K18">
-        <v>0.8293396655795249</v>
+        <v>0.6076181417818916</v>
       </c>
       <c r="L18">
-        <v>0.1279058745993069</v>
+        <v>0.2352124948695362</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2210805664449893</v>
       </c>
       <c r="N18">
-        <v>0.213227016400829</v>
+        <v>0.1362725701885523</v>
       </c>
       <c r="O18">
-        <v>0.60187480436295</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.234465305446875</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.6118865946030709</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.573702340190778</v>
+        <v>3.573132131272075</v>
       </c>
       <c r="C19">
-        <v>0.7823294579477249</v>
+        <v>0.8929419977860675</v>
       </c>
       <c r="D19">
-        <v>0.1881407088258982</v>
+        <v>0.1807585401267175</v>
       </c>
       <c r="E19">
-        <v>0.03940640046495014</v>
+        <v>0.03946942154217137</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.755143866965682</v>
+        <v>1.320304713442908</v>
       </c>
       <c r="H19">
-        <v>0.0376319073156921</v>
+        <v>0.03548284137487201</v>
       </c>
       <c r="I19">
-        <v>0.01008308849722628</v>
+        <v>0.007704574263578401</v>
       </c>
       <c r="J19">
-        <v>1.070972400789628</v>
+        <v>0.8572971226784318</v>
       </c>
       <c r="K19">
-        <v>0.987601357052192</v>
+        <v>0.7086422256834481</v>
       </c>
       <c r="L19">
-        <v>0.09925939690837282</v>
+        <v>0.2721462235355823</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2597265433288385</v>
       </c>
       <c r="N19">
-        <v>0.2716343286366083</v>
+        <v>0.1071132897879252</v>
       </c>
       <c r="O19">
-        <v>0.6327983928653609</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2977946617133966</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.6445288001538145</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.672155681673814</v>
+        <v>3.669399509684411</v>
       </c>
       <c r="C20">
-        <v>0.7788983750960199</v>
+        <v>0.9120853893059859</v>
       </c>
       <c r="D20">
-        <v>0.2315459087290179</v>
+        <v>0.2207360442630772</v>
       </c>
       <c r="E20">
-        <v>0.04331844778107685</v>
+        <v>0.04116344683679762</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.276167115475744</v>
+        <v>1.681355572253466</v>
       </c>
       <c r="H20">
-        <v>0.007763859518328697</v>
+        <v>0.006365309523610918</v>
       </c>
       <c r="I20">
-        <v>0.007641657448974826</v>
+        <v>0.006103022082664999</v>
       </c>
       <c r="J20">
-        <v>1.330139708585392</v>
+        <v>1.007481710296588</v>
       </c>
       <c r="K20">
-        <v>1.283915541234933</v>
+        <v>0.8827046377133527</v>
       </c>
       <c r="L20">
-        <v>0.07094408615807168</v>
+        <v>0.3325411121633906</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.3302988818673214</v>
       </c>
       <c r="N20">
-        <v>0.3859155373815071</v>
+        <v>0.07730556590163928</v>
       </c>
       <c r="O20">
-        <v>0.7126293084419117</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.4207018909421407</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.7274136283028625</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.130571343444274</v>
+        <v>4.126095572531142</v>
       </c>
       <c r="C21">
-        <v>0.8780045090773854</v>
+        <v>1.009567375718802</v>
       </c>
       <c r="D21">
-        <v>0.2524403378579763</v>
+        <v>0.2404993760853102</v>
       </c>
       <c r="E21">
-        <v>0.04681791765247301</v>
+        <v>0.04370127265513357</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.518433140030965</v>
+        <v>1.900647728075626</v>
       </c>
       <c r="H21">
-        <v>0.003813170459945336</v>
+        <v>0.003275532185873509</v>
       </c>
       <c r="I21">
-        <v>0.004340538609429956</v>
+        <v>0.003914678145942929</v>
       </c>
       <c r="J21">
-        <v>1.440304628422865</v>
+        <v>0.8694288382708351</v>
       </c>
       <c r="K21">
-        <v>1.388197934891252</v>
+        <v>0.882402389150073</v>
       </c>
       <c r="L21">
-        <v>0.07915131490012328</v>
+        <v>0.3231223792918811</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3419627449531717</v>
       </c>
       <c r="N21">
-        <v>0.4369742932347407</v>
+        <v>0.08440824002752834</v>
       </c>
       <c r="O21">
-        <v>0.8046632458467329</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.470944000810988</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.8194648825812862</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.433773429239977</v>
+        <v>4.427591002076326</v>
       </c>
       <c r="C22">
-        <v>0.9426266630899534</v>
+        <v>1.070481613174763</v>
       </c>
       <c r="D22">
-        <v>0.2645080811665395</v>
+        <v>0.2520689280858335</v>
       </c>
       <c r="E22">
-        <v>0.04887498959198844</v>
+        <v>0.04523172458555091</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.666647536343305</v>
+        <v>2.045438382669772</v>
       </c>
       <c r="H22">
-        <v>0.002096103135076577</v>
+        <v>0.001913866483524318</v>
       </c>
       <c r="I22">
-        <v>0.002634286824654275</v>
+        <v>0.00260934647089428</v>
       </c>
       <c r="J22">
-        <v>1.507247642386488</v>
+        <v>0.7738622571814489</v>
       </c>
       <c r="K22">
-        <v>1.450457390045173</v>
+        <v>0.875869905314147</v>
       </c>
       <c r="L22">
-        <v>0.08586475204309352</v>
+        <v>0.3148663193358203</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3474432298329617</v>
       </c>
       <c r="N22">
-        <v>0.4647220145104143</v>
+        <v>0.09034875153992061</v>
       </c>
       <c r="O22">
-        <v>0.8622580360487788</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.4974063367033779</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.8766771717165582</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.272098373583219</v>
+        <v>4.266781562945255</v>
       </c>
       <c r="C23">
-        <v>0.9055067913907919</v>
+        <v>1.038131347141416</v>
       </c>
       <c r="D23">
-        <v>0.2582849723178953</v>
+        <v>0.2459244601681405</v>
       </c>
       <c r="E23">
-        <v>0.04783570785270452</v>
+        <v>0.04445479795142981</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.598663901828701</v>
+        <v>1.96811271642548</v>
       </c>
       <c r="H23">
-        <v>0.002934582501445071</v>
+        <v>0.002573477548976744</v>
       </c>
       <c r="I23">
-        <v>0.003138346719482321</v>
+        <v>0.002855480465118632</v>
       </c>
       <c r="J23">
-        <v>1.477118859423229</v>
+        <v>0.8482627230275739</v>
       </c>
       <c r="K23">
-        <v>1.424535392254484</v>
+        <v>0.8894313518387591</v>
       </c>
       <c r="L23">
-        <v>0.08217144490244976</v>
+        <v>0.3227175593466427</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3485794722269944</v>
       </c>
       <c r="N23">
-        <v>0.4494108982487717</v>
+        <v>0.08722214053849342</v>
       </c>
       <c r="O23">
-        <v>0.83124567650421</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.4833576587713679</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.8461578085739703</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.66231524332153</v>
+        <v>3.659386272484483</v>
       </c>
       <c r="C24">
-        <v>0.770956203415551</v>
+        <v>0.9054801135885953</v>
       </c>
       <c r="D24">
-        <v>0.2346133442321161</v>
+        <v>0.2235307094004781</v>
       </c>
       <c r="E24">
-        <v>0.04385817295372396</v>
+        <v>0.04151581129858739</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.326686870523133</v>
+        <v>1.716524423049407</v>
       </c>
       <c r="H24">
-        <v>0.007497881596991496</v>
+        <v>0.00612541151006718</v>
       </c>
       <c r="I24">
-        <v>0.007047308381813444</v>
+        <v>0.005432102596623523</v>
       </c>
       <c r="J24">
-        <v>1.355759207054547</v>
+        <v>1.027321997243035</v>
       </c>
       <c r="K24">
-        <v>1.315874065611581</v>
+        <v>0.9039374422772681</v>
       </c>
       <c r="L24">
-        <v>0.06874144211824174</v>
+        <v>0.3403313260422252</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.3383908009760432</v>
       </c>
       <c r="N24">
-        <v>0.392690342370102</v>
+        <v>0.07496132356683916</v>
       </c>
       <c r="O24">
-        <v>0.7148826323070878</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.4281904875705607</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.7298975254814337</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.009568544021249</v>
+        <v>3.00772921728128</v>
       </c>
       <c r="C25">
-        <v>0.6290437079645415</v>
+        <v>0.7362022217709523</v>
       </c>
       <c r="D25">
-        <v>0.2095799946863508</v>
+        <v>0.2013740469581364</v>
       </c>
       <c r="E25">
-        <v>0.03965052074416464</v>
+        <v>0.03833142253331756</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.040646519510915</v>
+        <v>1.538401655834406</v>
       </c>
       <c r="H25">
-        <v>0.01504817567033861</v>
+        <v>0.01217271983255094</v>
       </c>
       <c r="I25">
-        <v>0.01410643123441524</v>
+        <v>0.01043526237186398</v>
       </c>
       <c r="J25">
-        <v>1.228703248590364</v>
+        <v>0.9668069297321153</v>
       </c>
       <c r="K25">
-        <v>1.201628700549016</v>
+        <v>0.861135644332272</v>
       </c>
       <c r="L25">
-        <v>0.05496596690557354</v>
+        <v>0.3381230198648595</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.3069772031509146</v>
       </c>
       <c r="N25">
-        <v>0.3323322481563054</v>
+        <v>0.06057853435969562</v>
       </c>
       <c r="O25">
-        <v>0.5905469187511088</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.3638019631582381</v>
       </c>
       <c r="Q25">
+        <v>0.6026646746243642</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
